--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/Ongoing_publications/MulticriteriaClustering/Otros metodos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3698E2-375C-B341-8E5E-5B901C2BCDFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AAEDFD-F5B3-3344-8F34-006863172866}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -67,10 +68,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,13 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
@@ -2473,6 +2486,61 @@
         <v>2.029048967</v>
       </c>
     </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>52.805</v>
+      </c>
+      <c r="B190" s="2">
+        <v>5.0003799999999998</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1.585573608</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>60.775500000000001</v>
+      </c>
+      <c r="B191" s="3">
+        <v>9.2762150000000005</v>
+      </c>
+      <c r="C191" s="3">
+        <v>4.7222177059999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>68.745999999999995</v>
+      </c>
+      <c r="B192" s="3">
+        <v>13.552050000000001</v>
+      </c>
+      <c r="C192" s="3">
+        <v>7.8588618039999991</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>76.716499999999996</v>
+      </c>
+      <c r="B193" s="3">
+        <v>17.827885000000002</v>
+      </c>
+      <c r="C193" s="3">
+        <v>10.995505901999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>84.686999999999998</v>
+      </c>
+      <c r="B194" s="3">
+        <v>22.103720000000003</v>
+      </c>
+      <c r="C194" s="3">
+        <v>14.132149999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/Ongoing_publications/MulticriteriaClustering/Otros metodos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AAEDFD-F5B3-3344-8F34-006863172866}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851ED6E6-6080-0D47-ADEC-178CED935BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E192" sqref="E192:G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,24 +2510,24 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>68.745999999999995</v>
+        <v>61.9</v>
       </c>
       <c r="B192" s="3">
-        <v>13.552050000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C192" s="3">
-        <v>7.8588618039999991</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>76.716499999999996</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="B193" s="3">
-        <v>17.827885000000002</v>
+        <v>16.5</v>
       </c>
       <c r="C193" s="3">
-        <v>10.995505901999998</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851ED6E6-6080-0D47-ADEC-178CED935BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1007B-A53B-704F-AC0F-AFEA23F778A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192:G192"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2499,46 +2495,57 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>60.775500000000001</v>
+        <v>58.7</v>
       </c>
       <c r="B191" s="3">
-        <v>9.2762150000000005</v>
+        <v>9.5</v>
       </c>
       <c r="C191" s="3">
-        <v>4.7222177059999995</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>61.9</v>
+        <v>66.8</v>
       </c>
       <c r="B192" s="3">
-        <v>9.8000000000000007</v>
+        <v>10.7</v>
       </c>
       <c r="C192" s="3">
-        <v>4.9000000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>80.599999999999994</v>
+        <v>74.7</v>
       </c>
       <c r="B193" s="3">
-        <v>16.5</v>
+        <v>13.8</v>
       </c>
       <c r="C193" s="3">
-        <v>11.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="B194" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="C194" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
         <v>84.686999999999998</v>
       </c>
-      <c r="B194" s="3">
-        <v>22.103720000000003</v>
-      </c>
-      <c r="C194" s="3">
-        <v>14.132149999999998</v>
+      <c r="B195" s="2">
+        <v>22.103719999999999</v>
+      </c>
+      <c r="C195" s="2">
+        <v>14.132149999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1007B-A53B-704F-AC0F-AFEA23F778A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F9767A-614A-474C-8C02-F129DCE33BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
@@ -26,22 +26,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,###,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,20 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,2158 +374,2155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:C195"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="10.83203125" style="4"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>82.271000000000001</v>
+        <v>0.92422056332726943</v>
       </c>
       <c r="B1" s="1">
-        <v>18.06082</v>
+        <v>0.76361926968650573</v>
       </c>
       <c r="C1" s="1">
-        <v>12.56681764</v>
+        <v>0.94633499585298086</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>83.63</v>
+        <v>0.96684649645568022</v>
       </c>
       <c r="B2" s="1">
-        <v>16.208819999999999</v>
+        <v>0.65533632612109682</v>
       </c>
       <c r="C2" s="1">
-        <v>13.380812410000001</v>
+        <v>0.97502609366134274</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>82.102999999999994</v>
+        <v>0.91895113230035741</v>
       </c>
       <c r="B3" s="1">
-        <v>18.79326</v>
+        <v>0.80644365369571092</v>
       </c>
       <c r="C3" s="1">
-        <v>12.52629458</v>
+        <v>0.94485851165457435</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>81.180000000000007</v>
+        <v>0.89000062731321772</v>
       </c>
       <c r="B4" s="1">
-        <v>17.09638</v>
+        <v>0.70723028367558616</v>
       </c>
       <c r="C4" s="1">
-        <v>14.132149999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>84.686999999999998</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>16.512229999999999</v>
+        <v>0.67307613600618355</v>
       </c>
       <c r="C5" s="1">
-        <v>12.038130000000001</v>
+        <v>0.92668672734076529</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>83.281000000000006</v>
+        <v>0.95589988081048893</v>
       </c>
       <c r="B6" s="1">
-        <v>22.103719999999999</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>12.683049860000001</v>
+        <v>0.9505437273397167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>82.855000000000004</v>
+        <v>0.94253810927796267</v>
       </c>
       <c r="B7" s="1">
-        <v>19.174510000000001</v>
+        <v>0.82873462142482124</v>
       </c>
       <c r="C7" s="1">
-        <v>12.53666119</v>
+        <v>0.94523668004016337</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>82.653999999999996</v>
+        <v>0.93623361144219308</v>
       </c>
       <c r="B8" s="1">
-        <v>18.832229999999999</v>
+        <v>0.80872215602332642</v>
       </c>
       <c r="C8" s="1">
-        <v>12.42604923</v>
+        <v>0.94118538461378154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>83.457999999999998</v>
+        <v>0.96145160278527075</v>
       </c>
       <c r="B9" s="1">
-        <v>16.32817</v>
+        <v>0.66231449529740982</v>
       </c>
       <c r="C9" s="1">
-        <v>11.49649</v>
+        <v>0.90564114455148126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>82.143000000000001</v>
+        <v>0.92020575873533661</v>
       </c>
       <c r="B10" s="1">
-        <v>18.044830000000001</v>
+        <v>0.76268436457440492</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1900128</v>
+        <v>0.93241831424120647</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>80.784000000000006</v>
+        <v>0.87757982560692582</v>
       </c>
       <c r="B11" s="1">
-        <v>19.06606</v>
+        <v>0.82239375467014053</v>
       </c>
       <c r="C11" s="1">
-        <v>12.587785159999999</v>
+        <v>0.94709709315579238</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>81.736000000000004</v>
+        <v>0.90743993475942564</v>
       </c>
       <c r="B12" s="1">
-        <v>19.316410000000001</v>
+        <v>0.83703124652845595</v>
       </c>
       <c r="C12" s="1">
-        <v>12.439609170000001</v>
+        <v>0.94168396888063521</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>82.314999999999998</v>
+        <v>0.92560065240574618</v>
       </c>
       <c r="B13" s="1">
-        <v>16.091439999999999</v>
+        <v>0.64847333912557426</v>
       </c>
       <c r="C13" s="1">
-        <v>13.315363120000001</v>
+        <v>0.97278460016714297</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>82.144999999999996</v>
+        <v>0.92026849005708544</v>
       </c>
       <c r="B14" s="1">
-        <v>18.837599999999998</v>
+        <v>0.80903612978517636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.678165999999999</v>
+        <v>0.95036766200244571</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>81.236000000000004</v>
+        <v>0.89175710432218824</v>
       </c>
       <c r="B15" s="1">
-        <v>17.442900000000002</v>
+        <v>0.72749065387228473</v>
       </c>
       <c r="C15" s="1">
-        <v>12.950670000000001</v>
+        <v>0.96008933678815334</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>78.850999999999999</v>
+        <v>0.81695000313656607</v>
       </c>
       <c r="B16" s="1">
-        <v>16.274370000000001</v>
+        <v>0.65916891086770202</v>
       </c>
       <c r="C16" s="1">
-        <v>13.41344</v>
+        <v>0.97613942462787495</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>81.468000000000004</v>
+        <v>0.89903393764506634</v>
       </c>
       <c r="B17" s="1">
-        <v>19.699909999999999</v>
+        <v>0.8594537675097379</v>
       </c>
       <c r="C17" s="1">
-        <v>11.78389183</v>
+        <v>0.91692876029238912</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>80.537000000000006</v>
+        <v>0.86983250737093054</v>
       </c>
       <c r="B18" s="1">
-        <v>14.720929999999999</v>
+        <v>0.56834220684380943</v>
       </c>
       <c r="C18" s="1">
-        <v>12.548457880000001</v>
+        <v>0.9456666367731551</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>84.47</v>
+        <v>0.99319365159023909</v>
       </c>
       <c r="B19" s="1">
-        <v>15.23057</v>
+        <v>0.59813989548240287</v>
       </c>
       <c r="C19" s="1">
-        <v>12.8</v>
+        <v>0.95473970447764644</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>81.433999999999997</v>
+        <v>0.89796750517533408</v>
       </c>
       <c r="B20" s="1">
-        <v>16.286760000000001</v>
+        <v>0.65989333077632795</v>
       </c>
       <c r="C20" s="1">
-        <v>12.558510739999999</v>
+        <v>0.94603271685510348</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>82.102000000000004</v>
+        <v>0.91891976663948327</v>
       </c>
       <c r="B21" s="1">
-        <v>14.22752</v>
+        <v>0.53949345566421536</v>
       </c>
       <c r="C21" s="1">
-        <v>12.19580174</v>
+        <v>0.93263535560616762</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>82.819000000000003</v>
+        <v>0.94140894548648157</v>
       </c>
       <c r="B22" s="1">
-        <v>15.99117</v>
+        <v>0.64261074152767828</v>
       </c>
       <c r="C22" s="1">
-        <v>12.95921504</v>
+        <v>0.96039086597174339</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>82.846000000000004</v>
+        <v>0.94225581833009242</v>
       </c>
       <c r="B23" s="1">
-        <v>16.393809999999998</v>
+        <v>0.66615234217410157</v>
       </c>
       <c r="C23" s="1">
-        <v>12.18500103</v>
+        <v>0.93223032759944657</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>81.171999999999997</v>
+        <v>0.88974970202622172</v>
       </c>
       <c r="B24" s="1">
-        <v>17.422180000000001</v>
+        <v>0.72627919459006263</v>
       </c>
       <c r="C24" s="1">
-        <v>12.273379090000001</v>
+        <v>0.93553401833942751</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>83.433000000000007</v>
+        <v>0.96066746126340907</v>
       </c>
       <c r="B25" s="1">
-        <v>17.877040000000001</v>
+        <v>0.75287400004911331</v>
       </c>
       <c r="C25" s="1">
-        <v>9.8194818060000006</v>
+        <v>0.83356206812108691</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>79.221999999999994</v>
+        <v>0.82858666332099606</v>
       </c>
       <c r="B26" s="1">
-        <v>16.831579999999999</v>
+        <v>0.69174792759776738</v>
       </c>
       <c r="C26" s="1">
-        <v>12.740350510000001</v>
+        <v>0.9526043922183518</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>82.540999999999997</v>
+        <v>0.93268929176337745</v>
       </c>
       <c r="B27" s="1">
-        <v>15.485799999999999</v>
+        <v>0.61306271172765081</v>
       </c>
       <c r="C27" s="1">
-        <v>11.417035909999999</v>
+        <v>0.90247079756225523</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>82.376000000000005</v>
+        <v>0.9275139577190894</v>
       </c>
       <c r="B28" s="1">
-        <v>15.896649999999999</v>
+        <v>0.63708433557422117</v>
       </c>
       <c r="C28" s="1">
-        <v>11.288110659999999</v>
+        <v>0.89727922340176069</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>83.352000000000004</v>
+        <v>0.95812684273257653</v>
       </c>
       <c r="B29" s="1">
-        <v>16.2469</v>
+        <v>0.65756279182896449</v>
       </c>
       <c r="C29" s="1">
-        <v>10.245089999999999</v>
+        <v>0.85295868357290383</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>78.566999999999993</v>
+        <v>0.80804215544821512</v>
       </c>
       <c r="B30" s="1">
-        <v>16.06362</v>
+        <v>0.64684675624761012</v>
       </c>
       <c r="C30" s="1">
-        <v>13.0290394</v>
+        <v>0.96284733685479584</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>80.828000000000003</v>
+        <v>0.87895991468540258</v>
       </c>
       <c r="B31" s="1">
-        <v>14.67400082</v>
+        <v>0.56559834628791805</v>
       </c>
       <c r="C31" s="1">
-        <v>12.10394114</v>
+        <v>0.92917906389044391</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>82.072000000000003</v>
+        <v>0.91797879681324901</v>
       </c>
       <c r="B32" s="1">
-        <v>17.33672</v>
+        <v>0.72128250973201724</v>
       </c>
       <c r="C32" s="1">
-        <v>10.53957898</v>
+        <v>0.86591363298617929</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>78.543999999999997</v>
+        <v>0.80732074524810238</v>
       </c>
       <c r="B33" s="1">
-        <v>16.433199999999999</v>
+        <v>0.66845540110878932</v>
       </c>
       <c r="C33" s="1">
-        <v>12.293981110000001</v>
+        <v>0.93630073011771087</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>75.736999999999995</v>
+        <v>0.71927733517345205</v>
       </c>
       <c r="B34" s="1">
-        <v>16.49953</v>
+        <v>0.67233359098281387</v>
       </c>
       <c r="C34" s="1">
-        <v>12.96103366</v>
+        <v>0.96045501403096911</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>77.813999999999993</v>
+        <v>0.78442381280973572</v>
       </c>
       <c r="B35" s="1">
-        <v>13.64343</v>
+        <v>0.5053428160815373</v>
       </c>
       <c r="C35" s="1">
-        <v>10.95412</v>
+        <v>0.88354926096887854</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>81.786000000000001</v>
+        <v>0.90900821780314922</v>
       </c>
       <c r="B36" s="1">
-        <v>13.300238739999999</v>
+        <v>0.48527707102823192</v>
       </c>
       <c r="C36" s="1">
-        <v>10.15545101</v>
+        <v>0.84894134174308611</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>74.998000000000005</v>
+        <v>0.69609811178721559</v>
       </c>
       <c r="B37" s="1">
-        <v>16.979099999999999</v>
+        <v>0.70037314349127122</v>
       </c>
       <c r="C37" s="1">
-        <v>9.6714509799999995</v>
+        <v>0.826618085723554</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>77.388000000000005</v>
+        <v>0.7710620412772099</v>
       </c>
       <c r="B38" s="1">
-        <v>14.53309</v>
+        <v>0.55735955667138704</v>
       </c>
       <c r="C38" s="1">
-        <v>12.60562251</v>
+        <v>0.94774442088999522</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>75.171999999999997</v>
+        <v>0.70155573677937388</v>
       </c>
       <c r="B39" s="1">
-        <v>15.98269</v>
+        <v>0.64211493193727076</v>
       </c>
       <c r="C39" s="1">
-        <v>12.825369029999999</v>
+        <v>0.95564484205997269</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>81.856999999999999</v>
+        <v>0.91123517972523682</v>
       </c>
       <c r="B40" s="1">
-        <v>16.29655</v>
+        <v>0.66046573359355543</v>
       </c>
       <c r="C40" s="1">
-        <v>9.1909586650000001</v>
+        <v>0.803323018924745</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>80.099999999999994</v>
+        <v>0.85612571356878475</v>
       </c>
       <c r="B41" s="1">
-        <v>12.17887</v>
+        <v>0.41971275785899131</v>
       </c>
       <c r="C41" s="1">
-        <v>9.6673399999999994</v>
+        <v>0.82642373025126914</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>80.042000000000002</v>
+        <v>0.85430650523806551</v>
       </c>
       <c r="B42" s="1">
-        <v>16.531559999999999</v>
+        <v>0.67420632461261953</v>
       </c>
       <c r="C42" s="1">
-        <v>10.4469855</v>
+        <v>0.86187975649477677</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>75.721999999999994</v>
+        <v>0.71880685026033486</v>
       </c>
       <c r="B43" s="1">
-        <v>14.380100000000001</v>
+        <v>0.54841452020482551</v>
       </c>
       <c r="C43" s="1">
-        <v>9.1</v>
+        <v>0.79877636486488646</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>76.700999999999993</v>
+        <v>0.74951383225644552</v>
       </c>
       <c r="B44" s="1">
-        <v>15.117089999999999</v>
+        <v>0.59150493412397809</v>
       </c>
       <c r="C44" s="1">
-        <v>11.88941481</v>
+        <v>0.92100417419122516</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>77.162999999999997</v>
+        <v>0.76400476758045288</v>
       </c>
       <c r="B45" s="1">
-        <v>15.25713</v>
+        <v>0.59969280853915086</v>
       </c>
       <c r="C45" s="1">
-        <v>9.411832983</v>
+        <v>0.81417897883276025</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>78.341999999999999</v>
+        <v>0.80098488175145854</v>
       </c>
       <c r="B46" s="1">
-        <v>14.96245</v>
+        <v>0.58246342527249073</v>
       </c>
       <c r="C46" s="1">
-        <v>11.40518282</v>
+        <v>0.90199594970806651</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>77.632999999999996</v>
+        <v>0.7787466281914559</v>
       </c>
       <c r="B47" s="1">
-        <v>14.664099999999999</v>
+        <v>0.5650194640345102</v>
       </c>
       <c r="C47" s="1">
-        <v>9.7318459120000007</v>
+        <v>0.82946390352940647</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>76.52</v>
+        <v>0.7438366476381657</v>
       </c>
       <c r="B48" s="1">
-        <v>17.638359999999999</v>
+        <v>0.7389188310587288</v>
       </c>
       <c r="C48" s="1">
-        <v>10.564964720000001</v>
+        <v>0.86701338506742875</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>72.385999999999996</v>
+        <v>0.61417100558308757</v>
       </c>
       <c r="B49" s="1">
-        <v>15.535729999999999</v>
+        <v>0.61598202456362328</v>
       </c>
       <c r="C49" s="1">
-        <v>12.01999</v>
+        <v>0.92599735095885616</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>74.59</v>
+        <v>0.68330092215042992</v>
       </c>
       <c r="B50" s="1">
-        <v>15.35894</v>
+        <v>0.60564544702964451</v>
       </c>
       <c r="C50" s="1">
-        <v>12.30584324</v>
+        <v>0.93674160101269943</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>73.236000000000004</v>
+        <v>0.64083181732639127</v>
       </c>
       <c r="B51" s="1">
-        <v>15.265219999999999</v>
+        <v>0.60016581556584858</v>
       </c>
       <c r="C51" s="1">
-        <v>11.784000000000001</v>
+        <v>0.91693295659515828</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>74.927999999999997</v>
+        <v>0.69390251552600213</v>
       </c>
       <c r="B52" s="1">
-        <v>14.810460000000001</v>
+        <v>0.57357685691800553</v>
       </c>
       <c r="C52" s="1">
-        <v>11.81482978</v>
+        <v>0.91812738721200426</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>76.77</v>
+        <v>0.75167806285678429</v>
       </c>
       <c r="B53" s="1">
-        <v>15.03186</v>
+        <v>0.58652169693171041</v>
       </c>
       <c r="C53" s="1">
-        <v>11.386768010000001</v>
+        <v>0.90125725232655463</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>75.924000000000007</v>
+        <v>0.72514271375697914</v>
       </c>
       <c r="B54" s="1">
-        <v>14.263450000000001</v>
+        <v>0.54159421493111881</v>
       </c>
       <c r="C54" s="1">
-        <v>10.97836</v>
+        <v>0.88455973643250552</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>73.677999999999997</v>
+        <v>0.65469543943290887</v>
       </c>
       <c r="B55" s="1">
-        <v>15.5532</v>
+        <v>0.61700346248159721</v>
       </c>
       <c r="C55" s="1">
-        <v>12.4</v>
+        <v>0.94022605431842621</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>79.081000000000003</v>
+        <v>0.82416410513769545</v>
       </c>
       <c r="B56" s="1">
-        <v>15.15573</v>
+        <v>0.59376414197460847</v>
       </c>
       <c r="C56" s="1">
-        <v>10.556900000000001</v>
+        <v>0.86666429476849249</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>75.397999999999996</v>
+        <v>0.70864437613700515</v>
       </c>
       <c r="B57" s="1">
-        <v>13.758800000000001</v>
+        <v>0.51208828217178637</v>
       </c>
       <c r="C57" s="1">
-        <v>7.2756679960000001</v>
+        <v>0.6964960633308136</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>77.77</v>
+        <v>0.78304372373125897</v>
       </c>
       <c r="B58" s="1">
-        <v>16.344840000000001</v>
+        <v>0.66328915872572269</v>
       </c>
       <c r="C58" s="1">
-        <v>8.7287168770000001</v>
+        <v>0.77973366003440003</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>77.436999999999998</v>
+        <v>0.7725989586600589</v>
       </c>
       <c r="B59" s="1">
-        <v>16.439128</v>
+        <v>0.66880200007717794</v>
       </c>
       <c r="C59" s="1">
-        <v>7.6679091259999996</v>
+        <v>0.72049981095443572</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>73.751999999999995</v>
+        <v>0.65701649833761988</v>
       </c>
       <c r="B60" s="1">
-        <v>12.82263</v>
+        <v>0.45735218968926539</v>
       </c>
       <c r="C60" s="1">
-        <v>11.532999999999999</v>
+        <v>0.9070906124402407</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>75.997</v>
+        <v>0.72743240700081557</v>
       </c>
       <c r="B61" s="1">
-        <v>13.46876</v>
+        <v>0.49513019094516042</v>
       </c>
       <c r="C61" s="1">
-        <v>10.159997929999999</v>
+        <v>0.84914597283351989</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>73.332999999999998</v>
+        <v>0.64387428643121514</v>
       </c>
       <c r="B62" s="1">
-        <v>15.452540000000001</v>
+        <v>0.61111806231999133</v>
       </c>
       <c r="C62" s="1">
-        <v>9.6728062589999997</v>
+        <v>0.82668214136330709</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>75.849000000000004</v>
+        <v>0.72279028919139343</v>
       </c>
       <c r="B63" s="1">
-        <v>14.76615</v>
+        <v>0.5709861348719022</v>
       </c>
       <c r="C63" s="1">
-        <v>11.180710120000001</v>
+        <v>0.89290893382337133</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>73.38</v>
+        <v>0.64534847249231531</v>
       </c>
       <c r="B64" s="1">
-        <v>12.96</v>
+        <v>0.4653839542451943</v>
       </c>
       <c r="C64" s="1">
-        <v>11.025940070000001</v>
+        <v>0.88653670114208327</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>76.478999999999999</v>
+        <v>0.74255065554231225</v>
       </c>
       <c r="B65" s="1">
-        <v>14.72684125</v>
+        <v>0.56868782647132077</v>
       </c>
       <c r="C65" s="1">
-        <v>10.01153929</v>
+        <v>0.84241690284210347</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>74.863</v>
+        <v>0.69186374756916136</v>
       </c>
       <c r="B66" s="1">
-        <v>14.96984</v>
+        <v>0.58289550462073492</v>
       </c>
       <c r="C66" s="1">
-        <v>9.43</v>
+        <v>0.81506051742449026</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>78.328999999999994</v>
+        <v>0.80057712816009019</v>
       </c>
       <c r="B67" s="1">
-        <v>12.88063</v>
+        <v>0.46074334018969398</v>
       </c>
       <c r="C67" s="1">
-        <v>10.17</v>
+        <v>0.84959578718992923</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>80.094999999999999</v>
+        <v>0.8559688852644125</v>
       </c>
       <c r="B68" s="1">
-        <v>15.377140000000001</v>
+        <v>0.60670956666943421</v>
       </c>
       <c r="C68" s="1">
-        <v>8.6671837000000007</v>
+        <v>0.77649962325144839</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>78.457999999999998</v>
+        <v>0.80462329841289759</v>
       </c>
       <c r="B69" s="1">
-        <v>15.23</v>
+        <v>0.59810656865851941</v>
       </c>
       <c r="C69" s="1">
-        <v>10.054618400000001</v>
+        <v>0.84437973828236512</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>73.599999999999994</v>
+        <v>0.65224891788469974</v>
       </c>
       <c r="B70" s="1">
-        <v>15.43314</v>
+        <v>0.60998378094571004</v>
       </c>
       <c r="C70" s="1">
-        <v>12.81457</v>
+        <v>0.95525976423748771</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>76.811999999999998</v>
+        <v>0.75299542061351232</v>
       </c>
       <c r="B71" s="1">
-        <v>13.96532</v>
+        <v>0.52416311667779514</v>
       </c>
       <c r="C71" s="1">
-        <v>11.05175</v>
+        <v>0.88760554462681085</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>78.725999999999999</v>
+        <v>0.81302929552725678</v>
       </c>
       <c r="B72" s="1">
-        <v>14.370229999999999</v>
+        <v>0.54783743993863188</v>
       </c>
       <c r="C72" s="1">
-        <v>11.750780799999999</v>
+        <v>0.91564245061259353</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>74.563999999999993</v>
+        <v>0.68248541496769322</v>
       </c>
       <c r="B73" s="1">
-        <v>13.608000000000001</v>
+        <v>0.50327129087067213</v>
       </c>
       <c r="C73" s="1">
-        <v>8.5</v>
+        <v>0.76759553757398913</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>76.885000000000005</v>
+        <v>0.7552851138573492</v>
       </c>
       <c r="B74" s="1">
-        <v>12.452489999999999</v>
+        <v>0.43571080268532342</v>
       </c>
       <c r="C74" s="1">
-        <v>9.2630938090000008</v>
+        <v>0.80689688345266153</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>77.262</v>
+        <v>0.76710996800702602</v>
       </c>
       <c r="B75" s="1">
-        <v>13.787613329999999</v>
+        <v>0.51377294317951927</v>
       </c>
       <c r="C75" s="1">
-        <v>9.6929160339999996</v>
+        <v>0.8276315526491933</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74.992000000000004</v>
+        <v>0.69590991782196865</v>
       </c>
       <c r="B76" s="1">
-        <v>14.297359999999999</v>
+        <v>0.54357686861162791</v>
       </c>
       <c r="C76" s="1">
-        <v>8.6008499999999994</v>
+        <v>0.77298746405449748</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>76.930999999999997</v>
+        <v>0.75672793425757479</v>
       </c>
       <c r="B77" s="1">
-        <v>14.650296300000001</v>
+        <v>0.56421238775584193</v>
       </c>
       <c r="C77" s="1">
-        <v>7.731400914</v>
+        <v>0.72426944748677935</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>72.384</v>
+        <v>0.61410827426133874</v>
       </c>
       <c r="B78" s="1">
-        <v>16.604479999999999</v>
+        <v>0.67846981934522732</v>
       </c>
       <c r="C78" s="1">
-        <v>8.8000000000000007</v>
+        <v>0.78345174840901399</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>75.671999999999997</v>
+        <v>0.71723856721661117</v>
       </c>
       <c r="B79" s="1">
-        <v>15.396940000000001</v>
+        <v>0.60786723528854603</v>
       </c>
       <c r="C79" s="1">
-        <v>7.8410467500000003</v>
+        <v>0.73070703524337588</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>77.108999999999995</v>
+        <v>0.76231102189323119</v>
       </c>
       <c r="B80" s="1">
-        <v>14.598140000000001</v>
+        <v>0.56116290736195396</v>
       </c>
       <c r="C80" s="1">
-        <v>8.3265808999999997</v>
+        <v>0.75817236489231365</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>74.944999999999993</v>
+        <v>0.69443573176086804</v>
       </c>
       <c r="B81" s="1">
-        <v>13.168369999999999</v>
+        <v>0.47756695475854422</v>
       </c>
       <c r="C81" s="1">
-        <v>11.793905000000001</v>
+        <v>0.91731704395419</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>76.692999999999998</v>
+        <v>0.74926290696944986</v>
       </c>
       <c r="B82" s="1">
-        <v>14.7193787</v>
+        <v>0.56825150526154544</v>
       </c>
       <c r="C82" s="1">
-        <v>7.9865478479999998</v>
+        <v>0.73911216281106651</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>75.688000000000002</v>
+        <v>0.71774041779060294</v>
       </c>
       <c r="B83" s="1">
-        <v>13.4639834</v>
+        <v>0.49485091216101651</v>
       </c>
       <c r="C83" s="1">
-        <v>9.6801165329999996</v>
+        <v>0.82702749802211006</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>76.516000000000005</v>
+        <v>0.74371118499466804</v>
       </c>
       <c r="B84" s="1">
-        <v>13.8474129</v>
+        <v>0.5172693111403972</v>
       </c>
       <c r="C84" s="1">
-        <v>9.2153958419999995</v>
+        <v>0.80453686670774582</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>76.703999999999994</v>
+        <v>0.74960792923906894</v>
       </c>
       <c r="B85" s="1">
-        <v>13.888916529999999</v>
+        <v>0.5196959500308127</v>
       </c>
       <c r="C85" s="1">
-        <v>7.9</v>
+        <v>0.73413121768499912</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>76.8</v>
+        <v>0.75261903268301855</v>
       </c>
       <c r="B86" s="1">
-        <v>14.92304375</v>
+        <v>0.58015941623098177</v>
       </c>
       <c r="C86" s="1">
-        <v>8.9855099999999997</v>
+        <v>0.79298843421352849</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>72.864000000000004</v>
+        <v>0.6291637914810867</v>
       </c>
       <c r="B87" s="1">
-        <v>12.40123094</v>
+        <v>0.43271378222031487</v>
       </c>
       <c r="C87" s="1">
-        <v>10.47972</v>
+        <v>0.86330992077037105</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>71.953000000000003</v>
+        <v>0.60058967442444022</v>
       </c>
       <c r="B88" s="1">
-        <v>15.073847049999999</v>
+        <v>0.58897660047686595</v>
       </c>
       <c r="C88" s="1">
-        <v>11.34</v>
+        <v>0.89937580290743313</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>73.891999999999996</v>
+        <v>0.66140769086004636</v>
       </c>
       <c r="B89" s="1">
-        <v>14.14082</v>
+        <v>0.53442427034719531</v>
       </c>
       <c r="C89" s="1">
-        <v>7.9353460020000002</v>
+        <v>0.73617198826088448</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>76.057000000000002</v>
+        <v>0.7293143466532841</v>
       </c>
       <c r="B90" s="1">
-        <v>13.872780000000001</v>
+        <v>0.51875247758624932</v>
       </c>
       <c r="C90" s="1">
-        <v>8.4914877559999997</v>
+        <v>0.76713750811053172</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>76.504999999999995</v>
+        <v>0.74336616272504852</v>
       </c>
       <c r="B91" s="1">
-        <v>15.101520000000001</v>
+        <v>0.5905945856189494</v>
       </c>
       <c r="C91" s="1">
-        <v>7.1722574549999996</v>
+        <v>0.68995200055801409</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>69.688999999999993</v>
+        <v>0.52957781820462935</v>
       </c>
       <c r="B92" s="1">
-        <v>14.20655</v>
+        <v>0.53826737935397417</v>
       </c>
       <c r="C92" s="1">
-        <v>10.171982760000001</v>
+        <v>0.84968490358096838</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>78.875</v>
+        <v>0.8177027789975535</v>
       </c>
       <c r="B93" s="1">
-        <v>11.285869999999999</v>
+        <v>0.36750073377480652</v>
       </c>
       <c r="C93" s="1">
-        <v>8.6999999999999993</v>
+        <v>0.77822721632531489</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>69.275000000000006</v>
+        <v>0.51659243460259729</v>
       </c>
       <c r="B94" s="1">
-        <v>12.697234959999999</v>
+        <v>0.45002057843672638</v>
       </c>
       <c r="C94" s="1">
-        <v>9.33</v>
+        <v>0.81018689363590712</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>72.415000000000006</v>
+        <v>0.61508060974844769</v>
       </c>
       <c r="B95" s="1">
-        <v>13.57174</v>
+        <v>0.50115123712678344</v>
       </c>
       <c r="C95" s="1">
-        <v>8.6165377480000007</v>
+        <v>0.77382052003500201</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>74.367999999999995</v>
+        <v>0.67633774543629621</v>
       </c>
       <c r="B96" s="1">
-        <v>13.1407323</v>
+        <v>0.47595103061741156</v>
       </c>
       <c r="C96" s="1">
-        <v>9.796912678</v>
+        <v>0.83251016315164272</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>72.128</v>
+        <v>0.60607866507747321</v>
       </c>
       <c r="B97" s="1">
-        <v>12.816079999999999</v>
+        <v>0.45696922355516523</v>
       </c>
       <c r="C97" s="1">
-        <v>10.323425909999999</v>
+        <v>0.85644077971344612</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>78.119</v>
+        <v>0.79399033937645069</v>
       </c>
       <c r="B98" s="1">
-        <v>12.966179</v>
+        <v>0.46574522870971408</v>
       </c>
       <c r="C98" s="1">
-        <v>7.8</v>
+        <v>0.72830767929388363</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>67.340999999999994</v>
+        <v>0.45593124647136302</v>
       </c>
       <c r="B99" s="1">
-        <v>14.427330830000001</v>
+        <v>0.55117601766672486</v>
       </c>
       <c r="C99" s="1">
-        <v>10.884</v>
+        <v>0.88061357988844269</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>74.131</v>
+        <v>0.66890408380904587</v>
       </c>
       <c r="B100" s="1">
-        <v>12.689852070000001</v>
+        <v>0.44958891479675905</v>
       </c>
       <c r="C100" s="1">
-        <v>8.4504391269999992</v>
+        <v>0.76492228524593031</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>71.569999999999993</v>
+        <v>0.58857662630951613</v>
       </c>
       <c r="B101" s="1">
-        <v>12.858750000000001</v>
+        <v>0.45946405789746336</v>
       </c>
       <c r="C101" s="1">
-        <v>9.1253671339999993</v>
+        <v>0.8000489185708245</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>74.405000000000001</v>
+        <v>0.677498274888652</v>
       </c>
       <c r="B102" s="1">
-        <v>11.8767423</v>
+        <v>0.40204792163402003</v>
       </c>
       <c r="C102" s="1">
-        <v>10.452</v>
+        <v>0.86209912948822665</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>74.495999999999995</v>
+        <v>0.68035255002822903</v>
       </c>
       <c r="B103" s="1">
-        <v>13.123340000000001</v>
+        <v>0.47493413567174603</v>
       </c>
       <c r="C103" s="1">
-        <v>9.7958357930000002</v>
+        <v>0.8324599109970503</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>78.626999999999995</v>
+        <v>0.80992409510068364</v>
       </c>
       <c r="B104" s="1">
-        <v>12.118009000000001</v>
+        <v>0.41615433008991232</v>
       </c>
       <c r="C104" s="1">
-        <v>6.8179999999999996</v>
+        <v>0.66679582351714606</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>70.801000000000002</v>
+        <v>0.56445643309704541</v>
       </c>
       <c r="B105" s="1">
-        <v>14.3</v>
+        <v>0.54373122442750954</v>
       </c>
       <c r="C105" s="1">
-        <v>11.21</v>
+        <v>0.89410493248816136</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>71.094999999999999</v>
+        <v>0.57367793739414086</v>
       </c>
       <c r="B106" s="1">
-        <v>12.72245333</v>
+        <v>0.45149504892026943</v>
       </c>
       <c r="C106" s="1">
-        <v>9.3930913979999993</v>
+        <v>0.81326777488740565</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>71.808000000000007</v>
+        <v>0.59604165359764161</v>
       </c>
       <c r="B107" s="1">
-        <v>11.613910000000001</v>
+        <v>0.38668061326033398</v>
       </c>
       <c r="C107" s="1">
-        <v>11.562754740000001</v>
+        <v>0.90826850305956708</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>68.072999999999993</v>
+        <v>0.47889091023147839</v>
       </c>
       <c r="B108" s="1">
-        <v>10.88933112</v>
+        <v>0.34431585409633442</v>
       </c>
       <c r="C108" s="1">
-        <v>9.7799999999999994</v>
+        <v>0.83172030517765816</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>71.572999999999993</v>
+        <v>0.58867072329213965</v>
       </c>
       <c r="B109" s="1">
-        <v>12.01214</v>
+        <v>0.40996436953250071</v>
       </c>
       <c r="C109" s="1">
-        <v>11.524961340000001</v>
+        <v>0.90677186735774884</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>72.724000000000004</v>
+        <v>0.62477259895866022</v>
       </c>
       <c r="B110" s="1">
-        <v>12.789937</v>
+        <v>0.45544069170115314</v>
       </c>
       <c r="C110" s="1">
-        <v>7.56</v>
+        <v>0.71402084212941064</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>71.509</v>
+        <v>0.58666332099617347</v>
       </c>
       <c r="B111" s="1">
-        <v>12.915594499999999</v>
+        <v>0.46278764849438764</v>
       </c>
       <c r="C111" s="1">
-        <v>7.9761526490000003</v>
+        <v>0.73851676501056396</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>73.186999999999998</v>
+        <v>0.63929489994354183</v>
       </c>
       <c r="B112" s="1">
-        <v>12.52</v>
+        <v>0.43965798493159813</v>
       </c>
       <c r="C112" s="1">
-        <v>10.59494988</v>
+        <v>0.86830899262534544</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>63.856999999999999</v>
+        <v>0.34665328398469358</v>
       </c>
       <c r="B113" s="1">
-        <v>13.66788</v>
+        <v>0.50677236142180426</v>
       </c>
       <c r="C113" s="1">
-        <v>10.24064634</v>
+        <v>0.85276036199360095</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>71.239000000000004</v>
+        <v>0.57819459256006545</v>
       </c>
       <c r="B114" s="1">
-        <v>14.013059999999999</v>
+        <v>0.52695438434832031</v>
       </c>
       <c r="C114" s="1">
-        <v>9.0175408390000005</v>
+        <v>0.79461511893267245</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>66.186999999999998</v>
+        <v>0.41973527382221942</v>
       </c>
       <c r="B115" s="1">
-        <v>12.9</v>
+        <v>0.46187586752061299</v>
       </c>
       <c r="C115" s="1">
-        <v>8.3200696710000006</v>
+        <v>0.7578147489668875</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>71.825000000000003</v>
+        <v>0.59657486983250751</v>
       </c>
       <c r="B116" s="1">
-        <v>13.104832500000001</v>
+        <v>0.47385203708749291</v>
       </c>
       <c r="C116" s="1">
-        <v>7.3259999999999996</v>
+        <v>0.69964761328339264</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>73.861000000000004</v>
+        <v>0.66043535537293785</v>
       </c>
       <c r="B117" s="1">
-        <v>12.390079999999999</v>
+        <v>0.43206180781063813</v>
       </c>
       <c r="C117" s="1">
-        <v>10.8856786</v>
+        <v>0.88068407774689861</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>75.316999999999993</v>
+        <v>0.70610375760617261</v>
       </c>
       <c r="B118" s="1">
-        <v>12.692323</v>
+        <v>0.44973338540893187</v>
       </c>
       <c r="C118" s="1">
-        <v>8.1999999999999993</v>
+        <v>0.75116952204863896</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>73.894999999999996</v>
+        <v>0.66150178784266978</v>
       </c>
       <c r="B119" s="1">
-        <v>12.84295</v>
+        <v>0.45854026172665691</v>
       </c>
       <c r="C119" s="1">
-        <v>9.1046413830000006</v>
+        <v>0.79900946687073926</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>70.453999999999994</v>
+        <v>0.55357254877360251</v>
       </c>
       <c r="B120" s="1">
-        <v>11.148673</v>
+        <v>0.35947908420226699</v>
       </c>
       <c r="C120" s="1">
-        <v>7.3159999999999998</v>
+        <v>0.69902318813298647</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>76.453000000000003</v>
+        <v>0.7417351483595761</v>
       </c>
       <c r="B121" s="1">
-        <v>13.0675557</v>
+        <v>0.47167253296724498</v>
       </c>
       <c r="C121" s="1">
-        <v>5.5140000000000002</v>
+        <v>0.56975570064563663</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>71.320999999999998</v>
+        <v>0.58076657675177212</v>
       </c>
       <c r="B122" s="1">
-        <v>13.36096</v>
+        <v>0.48882732846332944</v>
       </c>
       <c r="C122" s="1">
-        <v>10.88040163</v>
+        <v>0.88046241886911369</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>69.774000000000001</v>
+        <v>0.53224389937895999</v>
       </c>
       <c r="B123" s="1">
-        <v>11.47262358</v>
+        <v>0.37841986302090708</v>
       </c>
       <c r="C123" s="1">
-        <v>8.4667650499999993</v>
+        <v>0.76580461314113712</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>73.096000000000004</v>
+        <v>0.63644062480396479</v>
       </c>
       <c r="B124" s="1">
-        <v>12.03557</v>
+        <v>0.41133427739844969</v>
       </c>
       <c r="C124" s="1">
-        <v>6.9427577620000003</v>
+        <v>0.67508512332052106</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>70.879000000000005</v>
+        <v>0.56690295464525453</v>
       </c>
       <c r="B125" s="1">
-        <v>11.407859999999999</v>
+        <v>0.37463325876700104</v>
       </c>
       <c r="C125" s="1">
-        <v>10.67167179</v>
+        <v>0.87160739403369381</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>72.781999999999996</v>
+        <v>0.62659180728937958</v>
       </c>
       <c r="B126" s="1">
-        <v>11.86684</v>
+        <v>0.40146895284780637</v>
       </c>
       <c r="C126" s="1">
-        <v>6.2445727529999999</v>
+        <v>0.62663435993568106</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>74.063000000000002</v>
+        <v>0.66677121886958168</v>
       </c>
       <c r="B127" s="1">
-        <v>10.62148</v>
+        <v>0.32865510479239729</v>
       </c>
       <c r="C127" s="1">
-        <v>6.4678861339999996</v>
+        <v>0.6426967654281166</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>74.275000000000006</v>
+        <v>0.67342073897497046</v>
       </c>
       <c r="B128" s="1">
-        <v>12.206896070000001</v>
+        <v>0.42135138926081112</v>
       </c>
       <c r="C128" s="1">
-        <v>6.7960000000000003</v>
+        <v>0.66531835568283038</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>69.415999999999997</v>
+        <v>0.52101499278589791</v>
       </c>
       <c r="B129" s="1">
-        <v>12.34981</v>
+        <v>0.42970729693732335</v>
       </c>
       <c r="C129" s="1">
-        <v>6.4521327880000001</v>
+        <v>0.64158198175524572</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>63.372999999999998</v>
+        <v>0.33147230412144779</v>
       </c>
       <c r="B130" s="1">
-        <v>12.63338796</v>
+        <v>0.44628756488498744</v>
       </c>
       <c r="C130" s="1">
-        <v>6.94</v>
+        <v>0.67490350411771227</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>69.260000000000005</v>
+        <v>0.51612194968948011</v>
       </c>
       <c r="B131" s="1">
-        <v>12.39822</v>
+        <v>0.43253773824293973</v>
       </c>
       <c r="C131" s="1">
-        <v>4.5378769119999998</v>
+        <v>0.48069032610845674</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>75.087999999999994</v>
+        <v>0.69892102126591793</v>
       </c>
       <c r="B132" s="1">
-        <v>10.20793667</v>
+        <v>0.30447600702552841</v>
       </c>
       <c r="C132" s="1">
-        <v>6.5964413000000004</v>
+        <v>0.65169375499646065</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>68.116</v>
+        <v>0.48023963364908101</v>
       </c>
       <c r="B133" s="1">
-        <v>11.81000261</v>
+        <v>0.39814577795915884</v>
       </c>
       <c r="C133" s="1">
-        <v>7.8655276430000001</v>
+        <v>0.73213207458370821</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>71.459999999999994</v>
+        <v>0.58512640361332402</v>
       </c>
       <c r="B134" s="1">
-        <v>12.12799313</v>
+        <v>0.41673808332173717</v>
       </c>
       <c r="C134" s="1">
-        <v>3.1375615589999999</v>
+        <v>0.31199898540385557</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>72.319999999999993</v>
+        <v>0.61210087196537211</v>
       </c>
       <c r="B135" s="1">
-        <v>11.20449</v>
+        <v>0.36274259881403281</v>
       </c>
       <c r="C135" s="1">
-        <v>6.0618299999999996</v>
+        <v>0.61305680134551288</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>67.754999999999995</v>
+        <v>0.46891663007339557</v>
       </c>
       <c r="B136" s="1">
-        <v>11.54947988</v>
+        <v>0.38291350578308098</v>
       </c>
       <c r="C136" s="1">
-        <v>7.7173752149999997</v>
+        <v>0.72343938406543218</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>70.17</v>
+        <v>0.544664701085252</v>
       </c>
       <c r="B137" s="1">
-        <v>12.68717</v>
+        <v>0.4494320992274024</v>
       </c>
       <c r="C137" s="1">
-        <v>6.4367631830000001</v>
+        <v>0.6404917271852022</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>64.290000000000006</v>
+        <v>0.36023461514334132</v>
       </c>
       <c r="B138" s="1">
-        <v>11.60205989</v>
+        <v>0.38598775970073684</v>
       </c>
       <c r="C138" s="1">
-        <v>6.5022717070000002</v>
+        <v>0.64512065451924372</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>59.401000000000003</v>
+        <v>0.20688789912803476</v>
       </c>
       <c r="B139" s="1">
-        <v>11.37879</v>
+        <v>0.3729335907489415</v>
       </c>
       <c r="C139" s="1">
-        <v>6.7478095629999997</v>
+        <v>0.66206521697755916</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>67.61</v>
+        <v>0.46436860924659684</v>
       </c>
       <c r="B140" s="1">
-        <v>11.05725</v>
+        <v>0.35413375399191038</v>
       </c>
       <c r="C140" s="1">
-        <v>5.202</v>
+        <v>0.54312850839748716</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>70.322999999999993</v>
+        <v>0.54946364719904628</v>
       </c>
       <c r="B141" s="1">
-        <v>11.416887900000001</v>
+        <v>0.37516110303601524</v>
       </c>
       <c r="C141" s="1">
-        <v>6.84</v>
+        <v>0.66826853159913058</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>63.78</v>
+        <v>0.3442381280973591</v>
       </c>
       <c r="B142" s="1">
-        <v>11.51923</v>
+        <v>0.38114485240894475</v>
       </c>
       <c r="C142" s="1">
-        <v>7.1840000000000002</v>
+        <v>0.6906998287167786</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>63.51</v>
+        <v>0.33576939966125086</v>
       </c>
       <c r="B143" s="1">
-        <v>12.06104</v>
+        <v>0.41282346021303445</v>
       </c>
       <c r="C143" s="1">
-        <v>7.104178868</v>
+        <v>0.68559211856429358</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>58.402000000000001</v>
+        <v>0.17555360391443453</v>
       </c>
       <c r="B144" s="1">
-        <v>9.1999999999999993</v>
+        <v>0.2455438528381006</v>
       </c>
       <c r="C144" s="1">
-        <v>5.5508907760000001</v>
+        <v>0.57280396754919249</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>66.867000000000004</v>
+        <v>0.44106392321686233</v>
       </c>
       <c r="B145" s="1">
-        <v>10.3154</v>
+        <v>0.31075918504806666</v>
       </c>
       <c r="C145" s="1">
-        <v>4.9533994430000003</v>
+        <v>0.52074271029440666</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>69.569999999999993</v>
+        <v>0.52584530456056688</v>
       </c>
       <c r="B146" s="1">
-        <v>11.33676945</v>
+        <v>0.3704767285220314</v>
       </c>
       <c r="C146" s="1">
-        <v>4.8440000000000003</v>
+        <v>0.51053324331214167</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>66.341999999999999</v>
+        <v>0.42459695125776298</v>
       </c>
       <c r="B147" s="1">
-        <v>11.06424</v>
+        <v>0.35454244609532409</v>
       </c>
       <c r="C147" s="1">
-        <v>6.5640000000000001</v>
+        <v>0.64943998600954567</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>70.477999999999994</v>
+        <v>0.55432532463458994</v>
       </c>
       <c r="B148" s="1">
-        <v>12.1952</v>
+        <v>0.42066754212919816</v>
       </c>
       <c r="C148" s="1">
-        <v>4.8559999999999999</v>
+        <v>0.51166431584347294</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>60.781999999999996</v>
+        <v>0.25020387679568401</v>
       </c>
       <c r="B149" s="1">
-        <v>11.777202000000001</v>
+        <v>0.39622798821750616</v>
       </c>
       <c r="C149" s="1">
-        <v>5.1254595329999999</v>
+        <v>0.53635230739902917</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>58.920999999999999</v>
+        <v>0.1918323819082868</v>
       </c>
       <c r="B150" s="1">
-        <v>12.7494</v>
+        <v>0.45307056984191391</v>
       </c>
       <c r="C150" s="1">
-        <v>6.2916999999999996</v>
+        <v>0.63007141433597313</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>61.195</v>
+        <v>0.26315789473684215</v>
       </c>
       <c r="B151" s="1">
-        <v>10.451079999999999</v>
+        <v>0.31869213849458644</v>
       </c>
       <c r="C151" s="1">
-        <v>8.3422456969999992</v>
+        <v>0.75903157740393878</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>67.114000000000004</v>
+        <v>0.44881124145285761</v>
       </c>
       <c r="B152" s="1">
-        <v>8.4649800000000006</v>
+        <v>0.20256862109973847</v>
       </c>
       <c r="C152" s="1">
-        <v>5.158944258</v>
+        <v>0.53932910888300634</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>72.834999999999994</v>
+        <v>0.62825418731572658</v>
       </c>
       <c r="B153" s="1">
-        <v>10.220414330000001</v>
+        <v>0.30520555224885904</v>
       </c>
       <c r="C153" s="1">
-        <v>5.5407320599999998</v>
+        <v>0.57196658372072717</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>71.778999999999996</v>
+        <v>0.59513204943228148</v>
       </c>
       <c r="B154" s="1">
-        <v>8.8500999999999994</v>
+        <v>0.22508586042258411</v>
       </c>
       <c r="C154" s="1">
-        <v>5.0999999999999996</v>
+        <v>0.53407590403675387</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>64.263000000000005</v>
+        <v>0.35938774229973047</v>
       </c>
       <c r="B155" s="1">
-        <v>9.9964600000000008</v>
+        <v>0.29211136538243415</v>
       </c>
       <c r="C155" s="1">
-        <v>4.62</v>
+        <v>0.48888936286276868</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>64.117999999999995</v>
+        <v>0.3548397214729313</v>
       </c>
       <c r="B156" s="1">
-        <v>11.23886102</v>
+        <v>0.36475220746357145</v>
       </c>
       <c r="C156" s="1">
-        <v>4.908531258</v>
+        <v>0.51658302692281932</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>68.7</v>
+        <v>0.4985571795997743</v>
       </c>
       <c r="B157" s="1">
-        <v>11.166589999999999</v>
+        <v>0.36052665736633893</v>
       </c>
       <c r="C157" s="1">
-        <v>4.4171505389999997</v>
+        <v>0.46836375552924275</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>54.332000000000001</v>
+        <v>4.7895364155322785E-2</v>
       </c>
       <c r="B158" s="1">
-        <v>9.7464139999999997</v>
+        <v>0.27749164783018987</v>
       </c>
       <c r="C158" s="1">
-        <v>6.4619</v>
+        <v>0.64227347753592712</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>65.015000000000001</v>
+        <v>0.38297471927733523</v>
       </c>
       <c r="B159" s="1">
-        <v>8.0098933330000008</v>
+        <v>0.17596056284912778</v>
       </c>
       <c r="C159" s="1">
-        <v>6.008</v>
+        <v>0.60897918061829948</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>62.972999999999999</v>
+        <v>0.31892603977165801</v>
       </c>
       <c r="B160" s="1">
-        <v>11.242559999999999</v>
+        <v>0.36496847984077962</v>
       </c>
       <c r="C160" s="1">
-        <v>6.0902510000000003</v>
+        <v>0.61519510910989839</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>64.703999999999994</v>
+        <v>0.37321999874537337</v>
       </c>
       <c r="B161" s="1">
-        <v>8.4655699999999996</v>
+        <v>0.20260311728586347</v>
       </c>
       <c r="C161" s="1">
-        <v>4.6139999999999999</v>
+        <v>0.48829528664981059</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>66.680999999999997</v>
+        <v>0.43522991029420988</v>
       </c>
       <c r="B162" s="1">
-        <v>10.413169999999999</v>
+        <v>0.31647561236577182</v>
       </c>
       <c r="C162" s="1">
-        <v>6.1</v>
+        <v>0.61592629573247448</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>61.47</v>
+        <v>0.27178345147732264</v>
       </c>
       <c r="B163" s="1">
-        <v>12.614549999999999</v>
+        <v>0.44518614492841752</v>
       </c>
       <c r="C163" s="1">
-        <v>3.774</v>
+        <v>0.39642824571312318</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>53.704999999999998</v>
+        <v>2.822909478702712E-2</v>
       </c>
       <c r="B164" s="1">
-        <v>10.73776</v>
+        <v>0.33545377686463579</v>
       </c>
       <c r="C164" s="1">
-        <v>6.3479999999999999</v>
+        <v>0.63414385929130079</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>57.421999999999997</v>
+        <v>0.14481525625744926</v>
       </c>
       <c r="B165" s="1">
-        <v>9.6298399999999997</v>
+        <v>0.27067578613300092</v>
       </c>
       <c r="C165" s="1">
-        <v>5.1920000000000002</v>
+        <v>0.54224888222357415</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>67.665000000000006</v>
+        <v>0.46609372059469317</v>
       </c>
       <c r="B166" s="1">
-        <v>8.9710699999999992</v>
+        <v>0.23215874794046074</v>
       </c>
       <c r="C166" s="1">
-        <v>3.0689340000000001</v>
+        <v>0.30188900006785857</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>60.76</v>
+        <v>0.24951383225644561</v>
       </c>
       <c r="B167" s="1">
-        <v>12.56833</v>
+        <v>0.44248374878824837</v>
       </c>
       <c r="C167" s="1">
-        <v>4.9499255839999998</v>
+        <v>0.52042200074320133</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>65.094999999999999</v>
+        <v>0.38548397214729313</v>
       </c>
       <c r="B168" s="1">
-        <v>7.7398699999999998</v>
+        <v>0.16017280835205289</v>
       </c>
       <c r="C168" s="1">
-        <v>3.72</v>
+        <v>0.38984002242315569</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>63.66</v>
+        <v>0.340474248792422</v>
       </c>
       <c r="B169" s="1">
-        <v>9.5</v>
+        <v>0.26308428646100707</v>
       </c>
       <c r="C169" s="1">
-        <v>5.4416859999999998</v>
+        <v>0.56372080398576996</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>64.486000000000004</v>
+        <v>0.36638228467473827</v>
       </c>
       <c r="B170" s="1">
-        <v>10.138920000000001</v>
+        <v>0.30044073262883164</v>
       </c>
       <c r="C170" s="1">
-        <v>3.93</v>
+        <v>0.41494429870186278</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>66.581999999999994</v>
+        <v>0.43212470986763674</v>
       </c>
       <c r="B171" s="1">
-        <v>6.484498855</v>
+        <v>8.6773627548771187E-2</v>
       </c>
       <c r="C171" s="1">
-        <v>4</v>
+        <v>0.42301510371879814</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>63.798000000000002</v>
+        <v>0.34480270999309964</v>
       </c>
       <c r="B172" s="1">
-        <v>10.95276</v>
+        <v>0.34802442096105207</v>
       </c>
       <c r="C172" s="1">
-        <v>4.63</v>
+        <v>0.48987777747818118</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>66.239999999999995</v>
+        <v>0.42139765384856648</v>
       </c>
       <c r="B173" s="1">
-        <v>8.7101858839999995</v>
+        <v>0.21690534620723204</v>
       </c>
       <c r="C173" s="1">
-        <v>2.795442993</v>
+        <v>0.2592195505978967</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>61.734999999999999</v>
+        <v>0.28009535160905841</v>
       </c>
       <c r="B174" s="1">
-        <v>9.4820987510000005</v>
+        <v>0.26203763422816834</v>
       </c>
       <c r="C174" s="1">
-        <v>3.6659999999999999</v>
+        <v>0.38315546102201509</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>61.185000000000002</v>
+        <v>0.26284423812809743</v>
       </c>
       <c r="B175" s="1">
-        <v>9.0067500000000003</v>
+        <v>0.23424489017934513</v>
       </c>
       <c r="C175" s="1">
-        <v>2.7073925970000001</v>
+        <v>0.24458893613074636</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>63.73</v>
+        <v>0.34266984505363524</v>
       </c>
       <c r="B176" s="1">
-        <v>9.5796700000000001</v>
+        <v>0.26774244095013022</v>
       </c>
       <c r="C176" s="1">
-        <v>4.6680000000000001</v>
+        <v>0.4936143825149531</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>66.096000000000004</v>
+        <v>0.41688099868264239</v>
       </c>
       <c r="B177" s="1">
-        <v>8.6643899999999991</v>
+        <v>0.21422774732888428</v>
       </c>
       <c r="C177" s="1">
-        <v>3.2</v>
+        <v>0.32100690776157581</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>58.003</v>
+        <v>0.16303870522551914</v>
       </c>
       <c r="B178" s="1">
-        <v>10.5</v>
+        <v>0.32155239853736173</v>
       </c>
       <c r="C178" s="1">
-        <v>3.303495308</v>
+        <v>0.33555785338460931</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>60.368000000000002</v>
+        <v>0.23721849319365168</v>
       </c>
       <c r="B179" s="1">
-        <v>9.7025948</v>
+        <v>0.27492962193349368</v>
       </c>
       <c r="C179" s="1">
-        <v>6.7594799999999999</v>
+        <v>0.6628551672233236</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>60.162999999999997</v>
+        <v>0.23078853271438421</v>
       </c>
       <c r="B180" s="1">
-        <v>9.7471099999999993</v>
+        <v>0.277532341636195</v>
       </c>
       <c r="C180" s="1">
-        <v>3.5408984380000001</v>
+        <v>0.36728320431655992</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>54.308999999999997</v>
+        <v>4.717395395520977E-2</v>
       </c>
       <c r="B181" s="1">
-        <v>10.175929999999999</v>
+        <v>0.3026046374567774</v>
       </c>
       <c r="C181" s="1">
-        <v>3.6</v>
+        <v>0.37485043095958526</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>61.173999999999999</v>
+        <v>0.26249921585847813</v>
       </c>
       <c r="B182" s="1">
-        <v>8.9064599999999992</v>
+        <v>0.22838112321920745</v>
       </c>
       <c r="C182" s="1">
-        <v>1.585573608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>65.941000000000003</v>
+        <v>0.41201932124709878</v>
       </c>
       <c r="B183" s="1">
-        <v>5.0052836999999997</v>
+        <v>2.8671008118881134E-4</v>
       </c>
       <c r="C183" s="1">
-        <v>3.9</v>
+        <v>0.41144128093584814</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>58.893000000000001</v>
+        <v>0.19095414340380157</v>
       </c>
       <c r="B184" s="1">
-        <v>7.6033600000000003</v>
+        <v>0.15219132637250973</v>
       </c>
       <c r="C184" s="1">
-        <v>2.3529544119999999</v>
+        <v>0.18044543728070744</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>61.247</v>
+        <v>0.26478890910231478</v>
       </c>
       <c r="B185" s="1">
-        <v>11.30463</v>
+        <v>0.36859759555735899</v>
       </c>
       <c r="C185" s="1">
-        <v>3.1243650000000001</v>
+        <v>0.31007219666681801</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>57.603999999999999</v>
+        <v>0.15052380653660372</v>
       </c>
       <c r="B186" s="1">
-        <v>5.0003799999999998</v>
+        <v>0</v>
       </c>
       <c r="C186" s="1">
-        <v>4.8491299999999997</v>
+        <v>0.51101711932169314</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>53.976999999999997</v>
+        <v>3.6760554544884173E-2</v>
       </c>
       <c r="B187" s="1">
-        <v>7.4653640000000001</v>
+        <v>0.14412296077842107</v>
       </c>
       <c r="C187" s="1">
-        <v>2.4094970710000001</v>
+        <v>0.19130086132149937</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>52.805</v>
+        <v>0</v>
       </c>
       <c r="B188" s="1">
-        <v>7.5683600000000002</v>
+        <v>0.15014494244983731</v>
       </c>
       <c r="C188" s="1">
-        <v>4.282</v>
+        <v>0.4541582529530343</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>62.024000000000001</v>
+        <v>0.28916002760178161</v>
       </c>
       <c r="B189" s="1">
-        <v>6.4714499999999999</v>
+        <v>8.6010685632163089E-2</v>
       </c>
       <c r="C189" s="1">
-        <v>2.029048967</v>
+        <v>0.11274069316344919</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>52.805</v>
-      </c>
-      <c r="B190" s="2">
-        <v>5.0003799999999998</v>
-      </c>
-      <c r="C190" s="2">
-        <v>1.585573608</v>
+      <c r="A190" s="1">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
-        <v>58.7</v>
-      </c>
-      <c r="B191" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="C191" s="3">
-        <v>4.4000000000000004</v>
+      <c r="A191" s="1">
+        <v>0.18490057085502803</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0.26308428646100707</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.46658535005097868</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="B192" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="C192" s="3">
-        <v>5.9</v>
+      <c r="A192" s="1">
+        <v>0.43896242393827234</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0.33324602095263262</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.60068683184861604</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
-        <v>74.7</v>
-      </c>
-      <c r="B193" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="C193" s="3">
-        <v>9.5</v>
+      <c r="A193" s="1">
+        <v>0.68675114484662203</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0.51449716838933224</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.81844140031556589</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="3">
-        <v>81.5</v>
-      </c>
-      <c r="B194" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="C194" s="3">
-        <v>11.9</v>
+      <c r="A194" s="1">
+        <v>0.90003763879304943</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0.68990150461839628</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0.92141098796579213</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>84.686999999999998</v>
-      </c>
-      <c r="B195" s="2">
-        <v>22.103719999999999</v>
-      </c>
-      <c r="C195" s="2">
-        <v>14.132149999999999</v>
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F9767A-614A-474C-8C02-F129DCE33BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCF092-F6AE-2A4E-BE4F-AACF7382E7D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
@@ -374,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD205"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2472,46 +2472,46 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>0.18490057085502803</v>
+        <v>0.27</v>
       </c>
       <c r="B191" s="1">
-        <v>0.26308428646100707</v>
+        <v>0.25</v>
       </c>
       <c r="C191" s="1">
-        <v>0.46658535005097868</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>0.43896242393827234</v>
+        <v>0.51</v>
       </c>
       <c r="B192" s="1">
-        <v>0.33324602095263262</v>
+        <v>0.39</v>
       </c>
       <c r="C192" s="1">
-        <v>0.60068683184861604</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>0.68675114484662203</v>
+        <v>0.7</v>
       </c>
       <c r="B193" s="1">
-        <v>0.51449716838933224</v>
+        <v>0.53</v>
       </c>
       <c r="C193" s="1">
-        <v>0.81844140031556589</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>0.90003763879304943</v>
+        <v>0.9</v>
       </c>
       <c r="B194" s="1">
-        <v>0.68990150461839628</v>
+        <v>0.71</v>
       </c>
       <c r="C194" s="1">
-        <v>0.92141098796579213</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Code\python\mcda_clust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1007B-A53B-704F-AC0F-AFEA23F778A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A658F167-E6B8-4A7B-824C-221D1738DD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18105" windowHeight="11385" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -64,15 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -96,7 +89,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,18 +385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:C195"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="4"/>
+    <col min="1" max="3" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>82.271000000000001</v>
       </c>
@@ -414,7 +405,7 @@
         <v>12.56681764</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>83.63</v>
       </c>
@@ -425,7 +416,7 @@
         <v>13.380812410000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>82.102999999999994</v>
       </c>
@@ -436,7 +427,7 @@
         <v>12.52629458</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>81.180000000000007</v>
       </c>
@@ -447,7 +438,7 @@
         <v>14.132149999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>84.686999999999998</v>
       </c>
@@ -458,7 +449,7 @@
         <v>12.038130000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>83.281000000000006</v>
       </c>
@@ -469,7 +460,7 @@
         <v>12.683049860000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>82.855000000000004</v>
       </c>
@@ -480,7 +471,7 @@
         <v>12.53666119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>82.653999999999996</v>
       </c>
@@ -491,7 +482,7 @@
         <v>12.42604923</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>83.457999999999998</v>
       </c>
@@ -502,7 +493,7 @@
         <v>11.49649</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>82.143000000000001</v>
       </c>
@@ -513,7 +504,7 @@
         <v>12.1900128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80.784000000000006</v>
       </c>
@@ -524,7 +515,7 @@
         <v>12.587785159999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>81.736000000000004</v>
       </c>
@@ -535,7 +526,7 @@
         <v>12.439609170000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>82.314999999999998</v>
       </c>
@@ -546,7 +537,7 @@
         <v>13.315363120000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>82.144999999999996</v>
       </c>
@@ -557,7 +548,7 @@
         <v>12.678165999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>81.236000000000004</v>
       </c>
@@ -568,7 +559,7 @@
         <v>12.950670000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>78.850999999999999</v>
       </c>
@@ -579,7 +570,7 @@
         <v>13.41344</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>81.468000000000004</v>
       </c>
@@ -590,7 +581,7 @@
         <v>11.78389183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>80.537000000000006</v>
       </c>
@@ -601,7 +592,7 @@
         <v>12.548457880000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>84.47</v>
       </c>
@@ -612,7 +603,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>81.433999999999997</v>
       </c>
@@ -623,7 +614,7 @@
         <v>12.558510739999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>82.102000000000004</v>
       </c>
@@ -634,7 +625,7 @@
         <v>12.19580174</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>82.819000000000003</v>
       </c>
@@ -645,7 +636,7 @@
         <v>12.95921504</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>82.846000000000004</v>
       </c>
@@ -656,7 +647,7 @@
         <v>12.18500103</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>81.171999999999997</v>
       </c>
@@ -667,7 +658,7 @@
         <v>12.273379090000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>83.433000000000007</v>
       </c>
@@ -678,7 +669,7 @@
         <v>9.8194818060000006</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>79.221999999999994</v>
       </c>
@@ -689,7 +680,7 @@
         <v>12.740350510000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>82.540999999999997</v>
       </c>
@@ -700,7 +691,7 @@
         <v>11.417035909999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>82.376000000000005</v>
       </c>
@@ -711,7 +702,7 @@
         <v>11.288110659999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>83.352000000000004</v>
       </c>
@@ -722,7 +713,7 @@
         <v>10.245089999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>78.566999999999993</v>
       </c>
@@ -733,7 +724,7 @@
         <v>13.0290394</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>80.828000000000003</v>
       </c>
@@ -744,7 +735,7 @@
         <v>12.10394114</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>82.072000000000003</v>
       </c>
@@ -755,7 +746,7 @@
         <v>10.53957898</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>78.543999999999997</v>
       </c>
@@ -766,7 +757,7 @@
         <v>12.293981110000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>75.736999999999995</v>
       </c>
@@ -777,7 +768,7 @@
         <v>12.96103366</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>77.813999999999993</v>
       </c>
@@ -788,7 +779,7 @@
         <v>10.95412</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>81.786000000000001</v>
       </c>
@@ -799,7 +790,7 @@
         <v>10.15545101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>74.998000000000005</v>
       </c>
@@ -810,7 +801,7 @@
         <v>9.6714509799999995</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>77.388000000000005</v>
       </c>
@@ -821,7 +812,7 @@
         <v>12.60562251</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>75.171999999999997</v>
       </c>
@@ -832,7 +823,7 @@
         <v>12.825369029999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>81.856999999999999</v>
       </c>
@@ -843,7 +834,7 @@
         <v>9.1909586650000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>80.099999999999994</v>
       </c>
@@ -854,7 +845,7 @@
         <v>9.6673399999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>80.042000000000002</v>
       </c>
@@ -865,7 +856,7 @@
         <v>10.4469855</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>75.721999999999994</v>
       </c>
@@ -876,7 +867,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>76.700999999999993</v>
       </c>
@@ -887,7 +878,7 @@
         <v>11.88941481</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>77.162999999999997</v>
       </c>
@@ -898,7 +889,7 @@
         <v>9.411832983</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>78.341999999999999</v>
       </c>
@@ -909,7 +900,7 @@
         <v>11.40518282</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>77.632999999999996</v>
       </c>
@@ -920,7 +911,7 @@
         <v>9.7318459120000007</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>76.52</v>
       </c>
@@ -931,7 +922,7 @@
         <v>10.564964720000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>72.385999999999996</v>
       </c>
@@ -942,7 +933,7 @@
         <v>12.01999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>74.59</v>
       </c>
@@ -953,7 +944,7 @@
         <v>12.30584324</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>73.236000000000004</v>
       </c>
@@ -964,7 +955,7 @@
         <v>11.784000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>74.927999999999997</v>
       </c>
@@ -975,7 +966,7 @@
         <v>11.81482978</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>76.77</v>
       </c>
@@ -986,7 +977,7 @@
         <v>11.386768010000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>75.924000000000007</v>
       </c>
@@ -997,7 +988,7 @@
         <v>10.97836</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>73.677999999999997</v>
       </c>
@@ -1008,7 +999,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>79.081000000000003</v>
       </c>
@@ -1019,7 +1010,7 @@
         <v>10.556900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>75.397999999999996</v>
       </c>
@@ -1030,7 +1021,7 @@
         <v>7.2756679960000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>77.77</v>
       </c>
@@ -1041,7 +1032,7 @@
         <v>8.7287168770000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>77.436999999999998</v>
       </c>
@@ -1052,7 +1043,7 @@
         <v>7.6679091259999996</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>73.751999999999995</v>
       </c>
@@ -1063,7 +1054,7 @@
         <v>11.532999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>75.997</v>
       </c>
@@ -1074,7 +1065,7 @@
         <v>10.159997929999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>73.332999999999998</v>
       </c>
@@ -1085,7 +1076,7 @@
         <v>9.6728062589999997</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>75.849000000000004</v>
       </c>
@@ -1096,7 +1087,7 @@
         <v>11.180710120000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>73.38</v>
       </c>
@@ -1107,7 +1098,7 @@
         <v>11.025940070000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>76.478999999999999</v>
       </c>
@@ -1118,7 +1109,7 @@
         <v>10.01153929</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>74.863</v>
       </c>
@@ -1129,7 +1120,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>78.328999999999994</v>
       </c>
@@ -1140,7 +1131,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>80.094999999999999</v>
       </c>
@@ -1151,7 +1142,7 @@
         <v>8.6671837000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>78.457999999999998</v>
       </c>
@@ -1162,7 +1153,7 @@
         <v>10.054618400000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>73.599999999999994</v>
       </c>
@@ -1173,7 +1164,7 @@
         <v>12.81457</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>76.811999999999998</v>
       </c>
@@ -1184,7 +1175,7 @@
         <v>11.05175</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>78.725999999999999</v>
       </c>
@@ -1195,7 +1186,7 @@
         <v>11.750780799999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>74.563999999999993</v>
       </c>
@@ -1206,7 +1197,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>76.885000000000005</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>9.2630938090000008</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>77.262</v>
       </c>
@@ -1228,7 +1219,7 @@
         <v>9.6929160339999996</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74.992000000000004</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>8.6008499999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76.930999999999997</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>7.731400914</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>72.384</v>
       </c>
@@ -1261,7 +1252,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75.671999999999997</v>
       </c>
@@ -1272,7 +1263,7 @@
         <v>7.8410467500000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>77.108999999999995</v>
       </c>
@@ -1283,7 +1274,7 @@
         <v>8.3265808999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>74.944999999999993</v>
       </c>
@@ -1294,7 +1285,7 @@
         <v>11.793905000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>76.692999999999998</v>
       </c>
@@ -1305,7 +1296,7 @@
         <v>7.9865478479999998</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>75.688000000000002</v>
       </c>
@@ -1316,7 +1307,7 @@
         <v>9.6801165329999996</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>76.516000000000005</v>
       </c>
@@ -1327,7 +1318,7 @@
         <v>9.2153958419999995</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>76.703999999999994</v>
       </c>
@@ -1338,7 +1329,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>76.8</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>8.9855099999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>72.864000000000004</v>
       </c>
@@ -1360,7 +1351,7 @@
         <v>10.47972</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>71.953000000000003</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>73.891999999999996</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>7.9353460020000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>76.057000000000002</v>
       </c>
@@ -1393,7 +1384,7 @@
         <v>8.4914877559999997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>76.504999999999995</v>
       </c>
@@ -1404,7 +1395,7 @@
         <v>7.1722574549999996</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>69.688999999999993</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>10.171982760000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>78.875</v>
       </c>
@@ -1426,7 +1417,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>69.275000000000006</v>
       </c>
@@ -1437,7 +1428,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>72.415000000000006</v>
       </c>
@@ -1448,7 +1439,7 @@
         <v>8.6165377480000007</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>74.367999999999995</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>9.796912678</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>72.128</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>10.323425909999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>78.119</v>
       </c>
@@ -1481,7 +1472,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>67.340999999999994</v>
       </c>
@@ -1492,7 +1483,7 @@
         <v>10.884</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>74.131</v>
       </c>
@@ -1503,7 +1494,7 @@
         <v>8.4504391269999992</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>71.569999999999993</v>
       </c>
@@ -1514,7 +1505,7 @@
         <v>9.1253671339999993</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>74.405000000000001</v>
       </c>
@@ -1525,7 +1516,7 @@
         <v>10.452</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>74.495999999999995</v>
       </c>
@@ -1536,7 +1527,7 @@
         <v>9.7958357930000002</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>78.626999999999995</v>
       </c>
@@ -1547,7 +1538,7 @@
         <v>6.8179999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>70.801000000000002</v>
       </c>
@@ -1558,7 +1549,7 @@
         <v>11.21</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>71.094999999999999</v>
       </c>
@@ -1569,7 +1560,7 @@
         <v>9.3930913979999993</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>71.808000000000007</v>
       </c>
@@ -1580,7 +1571,7 @@
         <v>11.562754740000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>68.072999999999993</v>
       </c>
@@ -1591,7 +1582,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>71.572999999999993</v>
       </c>
@@ -1602,7 +1593,7 @@
         <v>11.524961340000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>72.724000000000004</v>
       </c>
@@ -1613,7 +1604,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>71.509</v>
       </c>
@@ -1624,7 +1615,7 @@
         <v>7.9761526490000003</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>73.186999999999998</v>
       </c>
@@ -1635,7 +1626,7 @@
         <v>10.59494988</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>63.856999999999999</v>
       </c>
@@ -1646,7 +1637,7 @@
         <v>10.24064634</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>71.239000000000004</v>
       </c>
@@ -1657,7 +1648,7 @@
         <v>9.0175408390000005</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>66.186999999999998</v>
       </c>
@@ -1668,7 +1659,7 @@
         <v>8.3200696710000006</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>71.825000000000003</v>
       </c>
@@ -1679,7 +1670,7 @@
         <v>7.3259999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>73.861000000000004</v>
       </c>
@@ -1690,7 +1681,7 @@
         <v>10.8856786</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>75.316999999999993</v>
       </c>
@@ -1701,7 +1692,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>73.894999999999996</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>9.1046413830000006</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>70.453999999999994</v>
       </c>
@@ -1723,7 +1714,7 @@
         <v>7.3159999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>76.453000000000003</v>
       </c>
@@ -1734,7 +1725,7 @@
         <v>5.5140000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>71.320999999999998</v>
       </c>
@@ -1745,7 +1736,7 @@
         <v>10.88040163</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>69.774000000000001</v>
       </c>
@@ -1756,7 +1747,7 @@
         <v>8.4667650499999993</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>73.096000000000004</v>
       </c>
@@ -1767,7 +1758,7 @@
         <v>6.9427577620000003</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>70.879000000000005</v>
       </c>
@@ -1778,7 +1769,7 @@
         <v>10.67167179</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>72.781999999999996</v>
       </c>
@@ -1789,7 +1780,7 @@
         <v>6.2445727529999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>74.063000000000002</v>
       </c>
@@ -1800,7 +1791,7 @@
         <v>6.4678861339999996</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>74.275000000000006</v>
       </c>
@@ -1811,7 +1802,7 @@
         <v>6.7960000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>69.415999999999997</v>
       </c>
@@ -1822,7 +1813,7 @@
         <v>6.4521327880000001</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>63.372999999999998</v>
       </c>
@@ -1833,7 +1824,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>69.260000000000005</v>
       </c>
@@ -1844,7 +1835,7 @@
         <v>4.5378769119999998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>75.087999999999994</v>
       </c>
@@ -1855,7 +1846,7 @@
         <v>6.5964413000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>68.116</v>
       </c>
@@ -1866,7 +1857,7 @@
         <v>7.8655276430000001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>71.459999999999994</v>
       </c>
@@ -1877,7 +1868,7 @@
         <v>3.1375615589999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>72.319999999999993</v>
       </c>
@@ -1888,7 +1879,7 @@
         <v>6.0618299999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>67.754999999999995</v>
       </c>
@@ -1899,7 +1890,7 @@
         <v>7.7173752149999997</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>70.17</v>
       </c>
@@ -1910,7 +1901,7 @@
         <v>6.4367631830000001</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>64.290000000000006</v>
       </c>
@@ -1921,7 +1912,7 @@
         <v>6.5022717070000002</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>59.401000000000003</v>
       </c>
@@ -1932,7 +1923,7 @@
         <v>6.7478095629999997</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>67.61</v>
       </c>
@@ -1943,7 +1934,7 @@
         <v>5.202</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>70.322999999999993</v>
       </c>
@@ -1954,7 +1945,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>63.78</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>7.1840000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>63.51</v>
       </c>
@@ -1976,7 +1967,7 @@
         <v>7.104178868</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>58.402000000000001</v>
       </c>
@@ -1987,7 +1978,7 @@
         <v>5.5508907760000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>66.867000000000004</v>
       </c>
@@ -1998,7 +1989,7 @@
         <v>4.9533994430000003</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>69.569999999999993</v>
       </c>
@@ -2009,7 +2000,7 @@
         <v>4.8440000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>66.341999999999999</v>
       </c>
@@ -2020,7 +2011,7 @@
         <v>6.5640000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>70.477999999999994</v>
       </c>
@@ -2031,7 +2022,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>60.781999999999996</v>
       </c>
@@ -2042,7 +2033,7 @@
         <v>5.1254595329999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>58.920999999999999</v>
       </c>
@@ -2053,7 +2044,7 @@
         <v>6.2916999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>61.195</v>
       </c>
@@ -2064,7 +2055,7 @@
         <v>8.3422456969999992</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>67.114000000000004</v>
       </c>
@@ -2075,7 +2066,7 @@
         <v>5.158944258</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>72.834999999999994</v>
       </c>
@@ -2086,7 +2077,7 @@
         <v>5.5407320599999998</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>71.778999999999996</v>
       </c>
@@ -2097,7 +2088,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>64.263000000000005</v>
       </c>
@@ -2108,7 +2099,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>64.117999999999995</v>
       </c>
@@ -2119,7 +2110,7 @@
         <v>4.908531258</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>68.7</v>
       </c>
@@ -2130,7 +2121,7 @@
         <v>4.4171505389999997</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>54.332000000000001</v>
       </c>
@@ -2141,7 +2132,7 @@
         <v>6.4619</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>65.015000000000001</v>
       </c>
@@ -2152,7 +2143,7 @@
         <v>6.008</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>62.972999999999999</v>
       </c>
@@ -2163,7 +2154,7 @@
         <v>6.0902510000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>64.703999999999994</v>
       </c>
@@ -2174,7 +2165,7 @@
         <v>4.6139999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>66.680999999999997</v>
       </c>
@@ -2185,7 +2176,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>61.47</v>
       </c>
@@ -2196,7 +2187,7 @@
         <v>3.774</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>53.704999999999998</v>
       </c>
@@ -2207,7 +2198,7 @@
         <v>6.3479999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>57.421999999999997</v>
       </c>
@@ -2218,7 +2209,7 @@
         <v>5.1920000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>67.665000000000006</v>
       </c>
@@ -2229,7 +2220,7 @@
         <v>3.0689340000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>60.76</v>
       </c>
@@ -2240,7 +2231,7 @@
         <v>4.9499255839999998</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>65.094999999999999</v>
       </c>
@@ -2251,7 +2242,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>63.66</v>
       </c>
@@ -2262,7 +2253,7 @@
         <v>5.4416859999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>64.486000000000004</v>
       </c>
@@ -2273,7 +2264,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>66.581999999999994</v>
       </c>
@@ -2284,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>63.798000000000002</v>
       </c>
@@ -2295,7 +2286,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>66.239999999999995</v>
       </c>
@@ -2306,7 +2297,7 @@
         <v>2.795442993</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>61.734999999999999</v>
       </c>
@@ -2317,7 +2308,7 @@
         <v>3.6659999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>61.185000000000002</v>
       </c>
@@ -2328,7 +2319,7 @@
         <v>2.7073925970000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>63.73</v>
       </c>
@@ -2339,7 +2330,7 @@
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>66.096000000000004</v>
       </c>
@@ -2350,7 +2341,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>58.003</v>
       </c>
@@ -2361,7 +2352,7 @@
         <v>3.303495308</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>60.368000000000002</v>
       </c>
@@ -2372,7 +2363,7 @@
         <v>6.7594799999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>60.162999999999997</v>
       </c>
@@ -2383,7 +2374,7 @@
         <v>3.5408984380000001</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>54.308999999999997</v>
       </c>
@@ -2394,7 +2385,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>61.173999999999999</v>
       </c>
@@ -2405,7 +2396,7 @@
         <v>1.585573608</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>65.941000000000003</v>
       </c>
@@ -2416,7 +2407,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>58.893000000000001</v>
       </c>
@@ -2427,7 +2418,7 @@
         <v>2.3529544119999999</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>61.247</v>
       </c>
@@ -2438,7 +2429,7 @@
         <v>3.1243650000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>57.603999999999999</v>
       </c>
@@ -2449,7 +2440,7 @@
         <v>4.8491299999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>53.976999999999997</v>
       </c>
@@ -2460,7 +2451,7 @@
         <v>2.4094970710000001</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>52.805</v>
       </c>
@@ -2471,7 +2462,7 @@
         <v>4.282</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>62.024000000000001</v>
       </c>
@@ -2480,72 +2471,6 @@
       </c>
       <c r="C189" s="1">
         <v>2.029048967</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>52.805</v>
-      </c>
-      <c r="B190" s="2">
-        <v>5.0003799999999998</v>
-      </c>
-      <c r="C190" s="2">
-        <v>1.585573608</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
-        <v>58.7</v>
-      </c>
-      <c r="B191" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="C191" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="B192" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="C192" s="3">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
-        <v>74.7</v>
-      </c>
-      <c r="B193" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="C193" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="3">
-        <v>81.5</v>
-      </c>
-      <c r="B194" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="C194" s="3">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>84.686999999999998</v>
-      </c>
-      <c r="B195" s="2">
-        <v>22.103719999999999</v>
-      </c>
-      <c r="C195" s="2">
-        <v>14.132149999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Code\python\mcda_clust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A658F167-E6B8-4A7B-824C-221D1738DD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCF092-F6AE-2A4E-BE4F-AACF7382E7D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18105" windowHeight="11385" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###,##0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,14 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,7 +76,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,2092 +372,2157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD203"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="10.875" style="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>82.271000000000001</v>
+        <v>0.92422056332726943</v>
       </c>
       <c r="B1" s="1">
-        <v>18.06082</v>
+        <v>0.76361926968650573</v>
       </c>
       <c r="C1" s="1">
-        <v>12.56681764</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94633499585298086</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>83.63</v>
+        <v>0.96684649645568022</v>
       </c>
       <c r="B2" s="1">
-        <v>16.208819999999999</v>
+        <v>0.65533632612109682</v>
       </c>
       <c r="C2" s="1">
-        <v>13.380812410000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.97502609366134274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>82.102999999999994</v>
+        <v>0.91895113230035741</v>
       </c>
       <c r="B3" s="1">
-        <v>18.79326</v>
+        <v>0.80644365369571092</v>
       </c>
       <c r="C3" s="1">
-        <v>12.52629458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94485851165457435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>81.180000000000007</v>
+        <v>0.89000062731321772</v>
       </c>
       <c r="B4" s="1">
-        <v>17.09638</v>
+        <v>0.70723028367558616</v>
       </c>
       <c r="C4" s="1">
-        <v>14.132149999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>84.686999999999998</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>16.512229999999999</v>
+        <v>0.67307613600618355</v>
       </c>
       <c r="C5" s="1">
-        <v>12.038130000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.92668672734076529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>83.281000000000006</v>
+        <v>0.95589988081048893</v>
       </c>
       <c r="B6" s="1">
-        <v>22.103719999999999</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>12.683049860000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9505437273397167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>82.855000000000004</v>
+        <v>0.94253810927796267</v>
       </c>
       <c r="B7" s="1">
-        <v>19.174510000000001</v>
+        <v>0.82873462142482124</v>
       </c>
       <c r="C7" s="1">
-        <v>12.53666119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94523668004016337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>82.653999999999996</v>
+        <v>0.93623361144219308</v>
       </c>
       <c r="B8" s="1">
-        <v>18.832229999999999</v>
+        <v>0.80872215602332642</v>
       </c>
       <c r="C8" s="1">
-        <v>12.42604923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94118538461378154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>83.457999999999998</v>
+        <v>0.96145160278527075</v>
       </c>
       <c r="B9" s="1">
-        <v>16.32817</v>
+        <v>0.66231449529740982</v>
       </c>
       <c r="C9" s="1">
-        <v>11.49649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90564114455148126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>82.143000000000001</v>
+        <v>0.92020575873533661</v>
       </c>
       <c r="B10" s="1">
-        <v>18.044830000000001</v>
+        <v>0.76268436457440492</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1900128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.93241831424120647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>80.784000000000006</v>
+        <v>0.87757982560692582</v>
       </c>
       <c r="B11" s="1">
-        <v>19.06606</v>
+        <v>0.82239375467014053</v>
       </c>
       <c r="C11" s="1">
-        <v>12.587785159999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94709709315579238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>81.736000000000004</v>
+        <v>0.90743993475942564</v>
       </c>
       <c r="B12" s="1">
-        <v>19.316410000000001</v>
+        <v>0.83703124652845595</v>
       </c>
       <c r="C12" s="1">
-        <v>12.439609170000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94168396888063521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>82.314999999999998</v>
+        <v>0.92560065240574618</v>
       </c>
       <c r="B13" s="1">
-        <v>16.091439999999999</v>
+        <v>0.64847333912557426</v>
       </c>
       <c r="C13" s="1">
-        <v>13.315363120000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.97278460016714297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>82.144999999999996</v>
+        <v>0.92026849005708544</v>
       </c>
       <c r="B14" s="1">
-        <v>18.837599999999998</v>
+        <v>0.80903612978517636</v>
       </c>
       <c r="C14" s="1">
-        <v>12.678165999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95036766200244571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>81.236000000000004</v>
+        <v>0.89175710432218824</v>
       </c>
       <c r="B15" s="1">
-        <v>17.442900000000002</v>
+        <v>0.72749065387228473</v>
       </c>
       <c r="C15" s="1">
-        <v>12.950670000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.96008933678815334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>78.850999999999999</v>
+        <v>0.81695000313656607</v>
       </c>
       <c r="B16" s="1">
-        <v>16.274370000000001</v>
+        <v>0.65916891086770202</v>
       </c>
       <c r="C16" s="1">
-        <v>13.41344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.97613942462787495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>81.468000000000004</v>
+        <v>0.89903393764506634</v>
       </c>
       <c r="B17" s="1">
-        <v>19.699909999999999</v>
+        <v>0.8594537675097379</v>
       </c>
       <c r="C17" s="1">
-        <v>11.78389183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.91692876029238912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>80.537000000000006</v>
+        <v>0.86983250737093054</v>
       </c>
       <c r="B18" s="1">
-        <v>14.720929999999999</v>
+        <v>0.56834220684380943</v>
       </c>
       <c r="C18" s="1">
-        <v>12.548457880000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9456666367731551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>84.47</v>
+        <v>0.99319365159023909</v>
       </c>
       <c r="B19" s="1">
-        <v>15.23057</v>
+        <v>0.59813989548240287</v>
       </c>
       <c r="C19" s="1">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95473970447764644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>81.433999999999997</v>
+        <v>0.89796750517533408</v>
       </c>
       <c r="B20" s="1">
-        <v>16.286760000000001</v>
+        <v>0.65989333077632795</v>
       </c>
       <c r="C20" s="1">
-        <v>12.558510739999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94603271685510348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>82.102000000000004</v>
+        <v>0.91891976663948327</v>
       </c>
       <c r="B21" s="1">
-        <v>14.22752</v>
+        <v>0.53949345566421536</v>
       </c>
       <c r="C21" s="1">
-        <v>12.19580174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.93263535560616762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>82.819000000000003</v>
+        <v>0.94140894548648157</v>
       </c>
       <c r="B22" s="1">
-        <v>15.99117</v>
+        <v>0.64261074152767828</v>
       </c>
       <c r="C22" s="1">
-        <v>12.95921504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.96039086597174339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>82.846000000000004</v>
+        <v>0.94225581833009242</v>
       </c>
       <c r="B23" s="1">
-        <v>16.393809999999998</v>
+        <v>0.66615234217410157</v>
       </c>
       <c r="C23" s="1">
-        <v>12.18500103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.93223032759944657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>81.171999999999997</v>
+        <v>0.88974970202622172</v>
       </c>
       <c r="B24" s="1">
-        <v>17.422180000000001</v>
+        <v>0.72627919459006263</v>
       </c>
       <c r="C24" s="1">
-        <v>12.273379090000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.93553401833942751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>83.433000000000007</v>
+        <v>0.96066746126340907</v>
       </c>
       <c r="B25" s="1">
-        <v>17.877040000000001</v>
+        <v>0.75287400004911331</v>
       </c>
       <c r="C25" s="1">
-        <v>9.8194818060000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83356206812108691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>79.221999999999994</v>
+        <v>0.82858666332099606</v>
       </c>
       <c r="B26" s="1">
-        <v>16.831579999999999</v>
+        <v>0.69174792759776738</v>
       </c>
       <c r="C26" s="1">
-        <v>12.740350510000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9526043922183518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>82.540999999999997</v>
+        <v>0.93268929176337745</v>
       </c>
       <c r="B27" s="1">
-        <v>15.485799999999999</v>
+        <v>0.61306271172765081</v>
       </c>
       <c r="C27" s="1">
-        <v>11.417035909999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90247079756225523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>82.376000000000005</v>
+        <v>0.9275139577190894</v>
       </c>
       <c r="B28" s="1">
-        <v>15.896649999999999</v>
+        <v>0.63708433557422117</v>
       </c>
       <c r="C28" s="1">
-        <v>11.288110659999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.89727922340176069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>83.352000000000004</v>
+        <v>0.95812684273257653</v>
       </c>
       <c r="B29" s="1">
-        <v>16.2469</v>
+        <v>0.65756279182896449</v>
       </c>
       <c r="C29" s="1">
-        <v>10.245089999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.85295868357290383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>78.566999999999993</v>
+        <v>0.80804215544821512</v>
       </c>
       <c r="B30" s="1">
-        <v>16.06362</v>
+        <v>0.64684675624761012</v>
       </c>
       <c r="C30" s="1">
-        <v>13.0290394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.96284733685479584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>80.828000000000003</v>
+        <v>0.87895991468540258</v>
       </c>
       <c r="B31" s="1">
-        <v>14.67400082</v>
+        <v>0.56559834628791805</v>
       </c>
       <c r="C31" s="1">
-        <v>12.10394114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.92917906389044391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>82.072000000000003</v>
+        <v>0.91797879681324901</v>
       </c>
       <c r="B32" s="1">
-        <v>17.33672</v>
+        <v>0.72128250973201724</v>
       </c>
       <c r="C32" s="1">
-        <v>10.53957898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86591363298617929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>78.543999999999997</v>
+        <v>0.80732074524810238</v>
       </c>
       <c r="B33" s="1">
-        <v>16.433199999999999</v>
+        <v>0.66845540110878932</v>
       </c>
       <c r="C33" s="1">
-        <v>12.293981110000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.93630073011771087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>75.736999999999995</v>
+        <v>0.71927733517345205</v>
       </c>
       <c r="B34" s="1">
-        <v>16.49953</v>
+        <v>0.67233359098281387</v>
       </c>
       <c r="C34" s="1">
-        <v>12.96103366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.96045501403096911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>77.813999999999993</v>
+        <v>0.78442381280973572</v>
       </c>
       <c r="B35" s="1">
-        <v>13.64343</v>
+        <v>0.5053428160815373</v>
       </c>
       <c r="C35" s="1">
-        <v>10.95412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88354926096887854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>81.786000000000001</v>
+        <v>0.90900821780314922</v>
       </c>
       <c r="B36" s="1">
-        <v>13.300238739999999</v>
+        <v>0.48527707102823192</v>
       </c>
       <c r="C36" s="1">
-        <v>10.15545101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84894134174308611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>74.998000000000005</v>
+        <v>0.69609811178721559</v>
       </c>
       <c r="B37" s="1">
-        <v>16.979099999999999</v>
+        <v>0.70037314349127122</v>
       </c>
       <c r="C37" s="1">
-        <v>9.6714509799999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.826618085723554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>77.388000000000005</v>
+        <v>0.7710620412772099</v>
       </c>
       <c r="B38" s="1">
-        <v>14.53309</v>
+        <v>0.55735955667138704</v>
       </c>
       <c r="C38" s="1">
-        <v>12.60562251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94774442088999522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>75.171999999999997</v>
+        <v>0.70155573677937388</v>
       </c>
       <c r="B39" s="1">
-        <v>15.98269</v>
+        <v>0.64211493193727076</v>
       </c>
       <c r="C39" s="1">
-        <v>12.825369029999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95564484205997269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>81.856999999999999</v>
+        <v>0.91123517972523682</v>
       </c>
       <c r="B40" s="1">
-        <v>16.29655</v>
+        <v>0.66046573359355543</v>
       </c>
       <c r="C40" s="1">
-        <v>9.1909586650000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.803323018924745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>80.099999999999994</v>
+        <v>0.85612571356878475</v>
       </c>
       <c r="B41" s="1">
-        <v>12.17887</v>
+        <v>0.41971275785899131</v>
       </c>
       <c r="C41" s="1">
-        <v>9.6673399999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.82642373025126914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>80.042000000000002</v>
+        <v>0.85430650523806551</v>
       </c>
       <c r="B42" s="1">
-        <v>16.531559999999999</v>
+        <v>0.67420632461261953</v>
       </c>
       <c r="C42" s="1">
-        <v>10.4469855</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86187975649477677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>75.721999999999994</v>
+        <v>0.71880685026033486</v>
       </c>
       <c r="B43" s="1">
-        <v>14.380100000000001</v>
+        <v>0.54841452020482551</v>
       </c>
       <c r="C43" s="1">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79877636486488646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>76.700999999999993</v>
+        <v>0.74951383225644552</v>
       </c>
       <c r="B44" s="1">
-        <v>15.117089999999999</v>
+        <v>0.59150493412397809</v>
       </c>
       <c r="C44" s="1">
-        <v>11.88941481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.92100417419122516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>77.162999999999997</v>
+        <v>0.76400476758045288</v>
       </c>
       <c r="B45" s="1">
-        <v>15.25713</v>
+        <v>0.59969280853915086</v>
       </c>
       <c r="C45" s="1">
-        <v>9.411832983</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.81417897883276025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>78.341999999999999</v>
+        <v>0.80098488175145854</v>
       </c>
       <c r="B46" s="1">
-        <v>14.96245</v>
+        <v>0.58246342527249073</v>
       </c>
       <c r="C46" s="1">
-        <v>11.40518282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90199594970806651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>77.632999999999996</v>
+        <v>0.7787466281914559</v>
       </c>
       <c r="B47" s="1">
-        <v>14.664099999999999</v>
+        <v>0.5650194640345102</v>
       </c>
       <c r="C47" s="1">
-        <v>9.7318459120000007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.82946390352940647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>76.52</v>
+        <v>0.7438366476381657</v>
       </c>
       <c r="B48" s="1">
-        <v>17.638359999999999</v>
+        <v>0.7389188310587288</v>
       </c>
       <c r="C48" s="1">
-        <v>10.564964720000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86701338506742875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>72.385999999999996</v>
+        <v>0.61417100558308757</v>
       </c>
       <c r="B49" s="1">
-        <v>15.535729999999999</v>
+        <v>0.61598202456362328</v>
       </c>
       <c r="C49" s="1">
-        <v>12.01999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.92599735095885616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>74.59</v>
+        <v>0.68330092215042992</v>
       </c>
       <c r="B50" s="1">
-        <v>15.35894</v>
+        <v>0.60564544702964451</v>
       </c>
       <c r="C50" s="1">
-        <v>12.30584324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.93674160101269943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>73.236000000000004</v>
+        <v>0.64083181732639127</v>
       </c>
       <c r="B51" s="1">
-        <v>15.265219999999999</v>
+        <v>0.60016581556584858</v>
       </c>
       <c r="C51" s="1">
-        <v>11.784000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.91693295659515828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>74.927999999999997</v>
+        <v>0.69390251552600213</v>
       </c>
       <c r="B52" s="1">
-        <v>14.810460000000001</v>
+        <v>0.57357685691800553</v>
       </c>
       <c r="C52" s="1">
-        <v>11.81482978</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.91812738721200426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>76.77</v>
+        <v>0.75167806285678429</v>
       </c>
       <c r="B53" s="1">
-        <v>15.03186</v>
+        <v>0.58652169693171041</v>
       </c>
       <c r="C53" s="1">
-        <v>11.386768010000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90125725232655463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>75.924000000000007</v>
+        <v>0.72514271375697914</v>
       </c>
       <c r="B54" s="1">
-        <v>14.263450000000001</v>
+        <v>0.54159421493111881</v>
       </c>
       <c r="C54" s="1">
-        <v>10.97836</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88455973643250552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>73.677999999999997</v>
+        <v>0.65469543943290887</v>
       </c>
       <c r="B55" s="1">
-        <v>15.5532</v>
+        <v>0.61700346248159721</v>
       </c>
       <c r="C55" s="1">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.94022605431842621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>79.081000000000003</v>
+        <v>0.82416410513769545</v>
       </c>
       <c r="B56" s="1">
-        <v>15.15573</v>
+        <v>0.59376414197460847</v>
       </c>
       <c r="C56" s="1">
-        <v>10.556900000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86666429476849249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>75.397999999999996</v>
+        <v>0.70864437613700515</v>
       </c>
       <c r="B57" s="1">
-        <v>13.758800000000001</v>
+        <v>0.51208828217178637</v>
       </c>
       <c r="C57" s="1">
-        <v>7.2756679960000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6964960633308136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>77.77</v>
+        <v>0.78304372373125897</v>
       </c>
       <c r="B58" s="1">
-        <v>16.344840000000001</v>
+        <v>0.66328915872572269</v>
       </c>
       <c r="C58" s="1">
-        <v>8.7287168770000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77973366003440003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>77.436999999999998</v>
+        <v>0.7725989586600589</v>
       </c>
       <c r="B59" s="1">
-        <v>16.439128</v>
+        <v>0.66880200007717794</v>
       </c>
       <c r="C59" s="1">
-        <v>7.6679091259999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72049981095443572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>73.751999999999995</v>
+        <v>0.65701649833761988</v>
       </c>
       <c r="B60" s="1">
-        <v>12.82263</v>
+        <v>0.45735218968926539</v>
       </c>
       <c r="C60" s="1">
-        <v>11.532999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9070906124402407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>75.997</v>
+        <v>0.72743240700081557</v>
       </c>
       <c r="B61" s="1">
-        <v>13.46876</v>
+        <v>0.49513019094516042</v>
       </c>
       <c r="C61" s="1">
-        <v>10.159997929999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84914597283351989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>73.332999999999998</v>
+        <v>0.64387428643121514</v>
       </c>
       <c r="B62" s="1">
-        <v>15.452540000000001</v>
+        <v>0.61111806231999133</v>
       </c>
       <c r="C62" s="1">
-        <v>9.6728062589999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.82668214136330709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>75.849000000000004</v>
+        <v>0.72279028919139343</v>
       </c>
       <c r="B63" s="1">
-        <v>14.76615</v>
+        <v>0.5709861348719022</v>
       </c>
       <c r="C63" s="1">
-        <v>11.180710120000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.89290893382337133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>73.38</v>
+        <v>0.64534847249231531</v>
       </c>
       <c r="B64" s="1">
-        <v>12.96</v>
+        <v>0.4653839542451943</v>
       </c>
       <c r="C64" s="1">
-        <v>11.025940070000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88653670114208327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>76.478999999999999</v>
+        <v>0.74255065554231225</v>
       </c>
       <c r="B65" s="1">
-        <v>14.72684125</v>
+        <v>0.56868782647132077</v>
       </c>
       <c r="C65" s="1">
-        <v>10.01153929</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84241690284210347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>74.863</v>
+        <v>0.69186374756916136</v>
       </c>
       <c r="B66" s="1">
-        <v>14.96984</v>
+        <v>0.58289550462073492</v>
       </c>
       <c r="C66" s="1">
-        <v>9.43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.81506051742449026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>78.328999999999994</v>
+        <v>0.80057712816009019</v>
       </c>
       <c r="B67" s="1">
-        <v>12.88063</v>
+        <v>0.46074334018969398</v>
       </c>
       <c r="C67" s="1">
-        <v>10.17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84959578718992923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>80.094999999999999</v>
+        <v>0.8559688852644125</v>
       </c>
       <c r="B68" s="1">
-        <v>15.377140000000001</v>
+        <v>0.60670956666943421</v>
       </c>
       <c r="C68" s="1">
-        <v>8.6671837000000007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77649962325144839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>78.457999999999998</v>
+        <v>0.80462329841289759</v>
       </c>
       <c r="B69" s="1">
-        <v>15.23</v>
+        <v>0.59810656865851941</v>
       </c>
       <c r="C69" s="1">
-        <v>10.054618400000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84437973828236512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>73.599999999999994</v>
+        <v>0.65224891788469974</v>
       </c>
       <c r="B70" s="1">
-        <v>15.43314</v>
+        <v>0.60998378094571004</v>
       </c>
       <c r="C70" s="1">
-        <v>12.81457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95525976423748771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>76.811999999999998</v>
+        <v>0.75299542061351232</v>
       </c>
       <c r="B71" s="1">
-        <v>13.96532</v>
+        <v>0.52416311667779514</v>
       </c>
       <c r="C71" s="1">
-        <v>11.05175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88760554462681085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>78.725999999999999</v>
+        <v>0.81302929552725678</v>
       </c>
       <c r="B72" s="1">
-        <v>14.370229999999999</v>
+        <v>0.54783743993863188</v>
       </c>
       <c r="C72" s="1">
-        <v>11.750780799999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.91564245061259353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>74.563999999999993</v>
+        <v>0.68248541496769322</v>
       </c>
       <c r="B73" s="1">
-        <v>13.608000000000001</v>
+        <v>0.50327129087067213</v>
       </c>
       <c r="C73" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.76759553757398913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>76.885000000000005</v>
+        <v>0.7552851138573492</v>
       </c>
       <c r="B74" s="1">
-        <v>12.452489999999999</v>
+        <v>0.43571080268532342</v>
       </c>
       <c r="C74" s="1">
-        <v>9.2630938090000008</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.80689688345266153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>77.262</v>
+        <v>0.76710996800702602</v>
       </c>
       <c r="B75" s="1">
-        <v>13.787613329999999</v>
+        <v>0.51377294317951927</v>
       </c>
       <c r="C75" s="1">
-        <v>9.6929160339999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.8276315526491933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74.992000000000004</v>
+        <v>0.69590991782196865</v>
       </c>
       <c r="B76" s="1">
-        <v>14.297359999999999</v>
+        <v>0.54357686861162791</v>
       </c>
       <c r="C76" s="1">
-        <v>8.6008499999999994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77298746405449748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>76.930999999999997</v>
+        <v>0.75672793425757479</v>
       </c>
       <c r="B77" s="1">
-        <v>14.650296300000001</v>
+        <v>0.56421238775584193</v>
       </c>
       <c r="C77" s="1">
-        <v>7.731400914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72426944748677935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>72.384</v>
+        <v>0.61410827426133874</v>
       </c>
       <c r="B78" s="1">
-        <v>16.604479999999999</v>
+        <v>0.67846981934522732</v>
       </c>
       <c r="C78" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.78345174840901399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>75.671999999999997</v>
+        <v>0.71723856721661117</v>
       </c>
       <c r="B79" s="1">
-        <v>15.396940000000001</v>
+        <v>0.60786723528854603</v>
       </c>
       <c r="C79" s="1">
-        <v>7.8410467500000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.73070703524337588</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>77.108999999999995</v>
+        <v>0.76231102189323119</v>
       </c>
       <c r="B80" s="1">
-        <v>14.598140000000001</v>
+        <v>0.56116290736195396</v>
       </c>
       <c r="C80" s="1">
-        <v>8.3265808999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75817236489231365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>74.944999999999993</v>
+        <v>0.69443573176086804</v>
       </c>
       <c r="B81" s="1">
-        <v>13.168369999999999</v>
+        <v>0.47756695475854422</v>
       </c>
       <c r="C81" s="1">
-        <v>11.793905000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.91731704395419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>76.692999999999998</v>
+        <v>0.74926290696944986</v>
       </c>
       <c r="B82" s="1">
-        <v>14.7193787</v>
+        <v>0.56825150526154544</v>
       </c>
       <c r="C82" s="1">
-        <v>7.9865478479999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.73911216281106651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>75.688000000000002</v>
+        <v>0.71774041779060294</v>
       </c>
       <c r="B83" s="1">
-        <v>13.4639834</v>
+        <v>0.49485091216101651</v>
       </c>
       <c r="C83" s="1">
-        <v>9.6801165329999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.82702749802211006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>76.516000000000005</v>
+        <v>0.74371118499466804</v>
       </c>
       <c r="B84" s="1">
-        <v>13.8474129</v>
+        <v>0.5172693111403972</v>
       </c>
       <c r="C84" s="1">
-        <v>9.2153958419999995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.80453686670774582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>76.703999999999994</v>
+        <v>0.74960792923906894</v>
       </c>
       <c r="B85" s="1">
-        <v>13.888916529999999</v>
+        <v>0.5196959500308127</v>
       </c>
       <c r="C85" s="1">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.73413121768499912</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>76.8</v>
+        <v>0.75261903268301855</v>
       </c>
       <c r="B86" s="1">
-        <v>14.92304375</v>
+        <v>0.58015941623098177</v>
       </c>
       <c r="C86" s="1">
-        <v>8.9855099999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79298843421352849</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>72.864000000000004</v>
+        <v>0.6291637914810867</v>
       </c>
       <c r="B87" s="1">
-        <v>12.40123094</v>
+        <v>0.43271378222031487</v>
       </c>
       <c r="C87" s="1">
-        <v>10.47972</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86330992077037105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>71.953000000000003</v>
+        <v>0.60058967442444022</v>
       </c>
       <c r="B88" s="1">
-        <v>15.073847049999999</v>
+        <v>0.58897660047686595</v>
       </c>
       <c r="C88" s="1">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.89937580290743313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>73.891999999999996</v>
+        <v>0.66140769086004636</v>
       </c>
       <c r="B89" s="1">
-        <v>14.14082</v>
+        <v>0.53442427034719531</v>
       </c>
       <c r="C89" s="1">
-        <v>7.9353460020000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.73617198826088448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>76.057000000000002</v>
+        <v>0.7293143466532841</v>
       </c>
       <c r="B90" s="1">
-        <v>13.872780000000001</v>
+        <v>0.51875247758624932</v>
       </c>
       <c r="C90" s="1">
-        <v>8.4914877559999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.76713750811053172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>76.504999999999995</v>
+        <v>0.74336616272504852</v>
       </c>
       <c r="B91" s="1">
-        <v>15.101520000000001</v>
+        <v>0.5905945856189494</v>
       </c>
       <c r="C91" s="1">
-        <v>7.1722574549999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.68995200055801409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>69.688999999999993</v>
+        <v>0.52957781820462935</v>
       </c>
       <c r="B92" s="1">
-        <v>14.20655</v>
+        <v>0.53826737935397417</v>
       </c>
       <c r="C92" s="1">
-        <v>10.171982760000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84968490358096838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>78.875</v>
+        <v>0.8177027789975535</v>
       </c>
       <c r="B93" s="1">
-        <v>11.285869999999999</v>
+        <v>0.36750073377480652</v>
       </c>
       <c r="C93" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77822721632531489</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>69.275000000000006</v>
+        <v>0.51659243460259729</v>
       </c>
       <c r="B94" s="1">
-        <v>12.697234959999999</v>
+        <v>0.45002057843672638</v>
       </c>
       <c r="C94" s="1">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.81018689363590712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>72.415000000000006</v>
+        <v>0.61508060974844769</v>
       </c>
       <c r="B95" s="1">
-        <v>13.57174</v>
+        <v>0.50115123712678344</v>
       </c>
       <c r="C95" s="1">
-        <v>8.6165377480000007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77382052003500201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>74.367999999999995</v>
+        <v>0.67633774543629621</v>
       </c>
       <c r="B96" s="1">
-        <v>13.1407323</v>
+        <v>0.47595103061741156</v>
       </c>
       <c r="C96" s="1">
-        <v>9.796912678</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83251016315164272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>72.128</v>
+        <v>0.60607866507747321</v>
       </c>
       <c r="B97" s="1">
-        <v>12.816079999999999</v>
+        <v>0.45696922355516523</v>
       </c>
       <c r="C97" s="1">
-        <v>10.323425909999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.85644077971344612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>78.119</v>
+        <v>0.79399033937645069</v>
       </c>
       <c r="B98" s="1">
-        <v>12.966179</v>
+        <v>0.46574522870971408</v>
       </c>
       <c r="C98" s="1">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72830767929388363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>67.340999999999994</v>
+        <v>0.45593124647136302</v>
       </c>
       <c r="B99" s="1">
-        <v>14.427330830000001</v>
+        <v>0.55117601766672486</v>
       </c>
       <c r="C99" s="1">
-        <v>10.884</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88061357988844269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>74.131</v>
+        <v>0.66890408380904587</v>
       </c>
       <c r="B100" s="1">
-        <v>12.689852070000001</v>
+        <v>0.44958891479675905</v>
       </c>
       <c r="C100" s="1">
-        <v>8.4504391269999992</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.76492228524593031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>71.569999999999993</v>
+        <v>0.58857662630951613</v>
       </c>
       <c r="B101" s="1">
-        <v>12.858750000000001</v>
+        <v>0.45946405789746336</v>
       </c>
       <c r="C101" s="1">
-        <v>9.1253671339999993</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.8000489185708245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>74.405000000000001</v>
+        <v>0.677498274888652</v>
       </c>
       <c r="B102" s="1">
-        <v>11.8767423</v>
+        <v>0.40204792163402003</v>
       </c>
       <c r="C102" s="1">
-        <v>10.452</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86209912948822665</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>74.495999999999995</v>
+        <v>0.68035255002822903</v>
       </c>
       <c r="B103" s="1">
-        <v>13.123340000000001</v>
+        <v>0.47493413567174603</v>
       </c>
       <c r="C103" s="1">
-        <v>9.7958357930000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.8324599109970503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>78.626999999999995</v>
+        <v>0.80992409510068364</v>
       </c>
       <c r="B104" s="1">
-        <v>12.118009000000001</v>
+        <v>0.41615433008991232</v>
       </c>
       <c r="C104" s="1">
-        <v>6.8179999999999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.66679582351714606</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>70.801000000000002</v>
+        <v>0.56445643309704541</v>
       </c>
       <c r="B105" s="1">
-        <v>14.3</v>
+        <v>0.54373122442750954</v>
       </c>
       <c r="C105" s="1">
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.89410493248816136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>71.094999999999999</v>
+        <v>0.57367793739414086</v>
       </c>
       <c r="B106" s="1">
-        <v>12.72245333</v>
+        <v>0.45149504892026943</v>
       </c>
       <c r="C106" s="1">
-        <v>9.3930913979999993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.81326777488740565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>71.808000000000007</v>
+        <v>0.59604165359764161</v>
       </c>
       <c r="B107" s="1">
-        <v>11.613910000000001</v>
+        <v>0.38668061326033398</v>
       </c>
       <c r="C107" s="1">
-        <v>11.562754740000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90826850305956708</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>68.072999999999993</v>
+        <v>0.47889091023147839</v>
       </c>
       <c r="B108" s="1">
-        <v>10.88933112</v>
+        <v>0.34431585409633442</v>
       </c>
       <c r="C108" s="1">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83172030517765816</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>71.572999999999993</v>
+        <v>0.58867072329213965</v>
       </c>
       <c r="B109" s="1">
-        <v>12.01214</v>
+        <v>0.40996436953250071</v>
       </c>
       <c r="C109" s="1">
-        <v>11.524961340000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90677186735774884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>72.724000000000004</v>
+        <v>0.62477259895866022</v>
       </c>
       <c r="B110" s="1">
-        <v>12.789937</v>
+        <v>0.45544069170115314</v>
       </c>
       <c r="C110" s="1">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.71402084212941064</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>71.509</v>
+        <v>0.58666332099617347</v>
       </c>
       <c r="B111" s="1">
-        <v>12.915594499999999</v>
+        <v>0.46278764849438764</v>
       </c>
       <c r="C111" s="1">
-        <v>7.9761526490000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.73851676501056396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>73.186999999999998</v>
+        <v>0.63929489994354183</v>
       </c>
       <c r="B112" s="1">
-        <v>12.52</v>
+        <v>0.43965798493159813</v>
       </c>
       <c r="C112" s="1">
-        <v>10.59494988</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86830899262534544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>63.856999999999999</v>
+        <v>0.34665328398469358</v>
       </c>
       <c r="B113" s="1">
-        <v>13.66788</v>
+        <v>0.50677236142180426</v>
       </c>
       <c r="C113" s="1">
-        <v>10.24064634</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.85276036199360095</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>71.239000000000004</v>
+        <v>0.57819459256006545</v>
       </c>
       <c r="B114" s="1">
-        <v>14.013059999999999</v>
+        <v>0.52695438434832031</v>
       </c>
       <c r="C114" s="1">
-        <v>9.0175408390000005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79461511893267245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>66.186999999999998</v>
+        <v>0.41973527382221942</v>
       </c>
       <c r="B115" s="1">
-        <v>12.9</v>
+        <v>0.46187586752061299</v>
       </c>
       <c r="C115" s="1">
-        <v>8.3200696710000006</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7578147489668875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>71.825000000000003</v>
+        <v>0.59657486983250751</v>
       </c>
       <c r="B116" s="1">
-        <v>13.104832500000001</v>
+        <v>0.47385203708749291</v>
       </c>
       <c r="C116" s="1">
-        <v>7.3259999999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.69964761328339264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>73.861000000000004</v>
+        <v>0.66043535537293785</v>
       </c>
       <c r="B117" s="1">
-        <v>12.390079999999999</v>
+        <v>0.43206180781063813</v>
       </c>
       <c r="C117" s="1">
-        <v>10.8856786</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88068407774689861</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>75.316999999999993</v>
+        <v>0.70610375760617261</v>
       </c>
       <c r="B118" s="1">
-        <v>12.692323</v>
+        <v>0.44973338540893187</v>
       </c>
       <c r="C118" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75116952204863896</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>73.894999999999996</v>
+        <v>0.66150178784266978</v>
       </c>
       <c r="B119" s="1">
-        <v>12.84295</v>
+        <v>0.45854026172665691</v>
       </c>
       <c r="C119" s="1">
-        <v>9.1046413830000006</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79900946687073926</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>70.453999999999994</v>
+        <v>0.55357254877360251</v>
       </c>
       <c r="B120" s="1">
-        <v>11.148673</v>
+        <v>0.35947908420226699</v>
       </c>
       <c r="C120" s="1">
-        <v>7.3159999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.69902318813298647</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>76.453000000000003</v>
+        <v>0.7417351483595761</v>
       </c>
       <c r="B121" s="1">
-        <v>13.0675557</v>
+        <v>0.47167253296724498</v>
       </c>
       <c r="C121" s="1">
-        <v>5.5140000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56975570064563663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>71.320999999999998</v>
+        <v>0.58076657675177212</v>
       </c>
       <c r="B122" s="1">
-        <v>13.36096</v>
+        <v>0.48882732846332944</v>
       </c>
       <c r="C122" s="1">
-        <v>10.88040163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88046241886911369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>69.774000000000001</v>
+        <v>0.53224389937895999</v>
       </c>
       <c r="B123" s="1">
-        <v>11.47262358</v>
+        <v>0.37841986302090708</v>
       </c>
       <c r="C123" s="1">
-        <v>8.4667650499999993</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.76580461314113712</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>73.096000000000004</v>
+        <v>0.63644062480396479</v>
       </c>
       <c r="B124" s="1">
-        <v>12.03557</v>
+        <v>0.41133427739844969</v>
       </c>
       <c r="C124" s="1">
-        <v>6.9427577620000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.67508512332052106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>70.879000000000005</v>
+        <v>0.56690295464525453</v>
       </c>
       <c r="B125" s="1">
-        <v>11.407859999999999</v>
+        <v>0.37463325876700104</v>
       </c>
       <c r="C125" s="1">
-        <v>10.67167179</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.87160739403369381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>72.781999999999996</v>
+        <v>0.62659180728937958</v>
       </c>
       <c r="B126" s="1">
-        <v>11.86684</v>
+        <v>0.40146895284780637</v>
       </c>
       <c r="C126" s="1">
-        <v>6.2445727529999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.62663435993568106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>74.063000000000002</v>
+        <v>0.66677121886958168</v>
       </c>
       <c r="B127" s="1">
-        <v>10.62148</v>
+        <v>0.32865510479239729</v>
       </c>
       <c r="C127" s="1">
-        <v>6.4678861339999996</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6426967654281166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>74.275000000000006</v>
+        <v>0.67342073897497046</v>
       </c>
       <c r="B128" s="1">
-        <v>12.206896070000001</v>
+        <v>0.42135138926081112</v>
       </c>
       <c r="C128" s="1">
-        <v>6.7960000000000003</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.66531835568283038</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>69.415999999999997</v>
+        <v>0.52101499278589791</v>
       </c>
       <c r="B129" s="1">
-        <v>12.34981</v>
+        <v>0.42970729693732335</v>
       </c>
       <c r="C129" s="1">
-        <v>6.4521327880000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.64158198175524572</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>63.372999999999998</v>
+        <v>0.33147230412144779</v>
       </c>
       <c r="B130" s="1">
-        <v>12.63338796</v>
+        <v>0.44628756488498744</v>
       </c>
       <c r="C130" s="1">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.67490350411771227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>69.260000000000005</v>
+        <v>0.51612194968948011</v>
       </c>
       <c r="B131" s="1">
-        <v>12.39822</v>
+        <v>0.43253773824293973</v>
       </c>
       <c r="C131" s="1">
-        <v>4.5378769119999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48069032610845674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>75.087999999999994</v>
+        <v>0.69892102126591793</v>
       </c>
       <c r="B132" s="1">
-        <v>10.20793667</v>
+        <v>0.30447600702552841</v>
       </c>
       <c r="C132" s="1">
-        <v>6.5964413000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.65169375499646065</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>68.116</v>
+        <v>0.48023963364908101</v>
       </c>
       <c r="B133" s="1">
-        <v>11.81000261</v>
+        <v>0.39814577795915884</v>
       </c>
       <c r="C133" s="1">
-        <v>7.8655276430000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.73213207458370821</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>71.459999999999994</v>
+        <v>0.58512640361332402</v>
       </c>
       <c r="B134" s="1">
-        <v>12.12799313</v>
+        <v>0.41673808332173717</v>
       </c>
       <c r="C134" s="1">
-        <v>3.1375615589999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.31199898540385557</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>72.319999999999993</v>
+        <v>0.61210087196537211</v>
       </c>
       <c r="B135" s="1">
-        <v>11.20449</v>
+        <v>0.36274259881403281</v>
       </c>
       <c r="C135" s="1">
-        <v>6.0618299999999996</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61305680134551288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>67.754999999999995</v>
+        <v>0.46891663007339557</v>
       </c>
       <c r="B136" s="1">
-        <v>11.54947988</v>
+        <v>0.38291350578308098</v>
       </c>
       <c r="C136" s="1">
-        <v>7.7173752149999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72343938406543218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>70.17</v>
+        <v>0.544664701085252</v>
       </c>
       <c r="B137" s="1">
-        <v>12.68717</v>
+        <v>0.4494320992274024</v>
       </c>
       <c r="C137" s="1">
-        <v>6.4367631830000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6404917271852022</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>64.290000000000006</v>
+        <v>0.36023461514334132</v>
       </c>
       <c r="B138" s="1">
-        <v>11.60205989</v>
+        <v>0.38598775970073684</v>
       </c>
       <c r="C138" s="1">
-        <v>6.5022717070000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.64512065451924372</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>59.401000000000003</v>
+        <v>0.20688789912803476</v>
       </c>
       <c r="B139" s="1">
-        <v>11.37879</v>
+        <v>0.3729335907489415</v>
       </c>
       <c r="C139" s="1">
-        <v>6.7478095629999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.66206521697755916</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>67.61</v>
+        <v>0.46436860924659684</v>
       </c>
       <c r="B140" s="1">
-        <v>11.05725</v>
+        <v>0.35413375399191038</v>
       </c>
       <c r="C140" s="1">
-        <v>5.202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.54312850839748716</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>70.322999999999993</v>
+        <v>0.54946364719904628</v>
       </c>
       <c r="B141" s="1">
-        <v>11.416887900000001</v>
+        <v>0.37516110303601524</v>
       </c>
       <c r="C141" s="1">
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.66826853159913058</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>63.78</v>
+        <v>0.3442381280973591</v>
       </c>
       <c r="B142" s="1">
-        <v>11.51923</v>
+        <v>0.38114485240894475</v>
       </c>
       <c r="C142" s="1">
-        <v>7.1840000000000002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6906998287167786</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>63.51</v>
+        <v>0.33576939966125086</v>
       </c>
       <c r="B143" s="1">
-        <v>12.06104</v>
+        <v>0.41282346021303445</v>
       </c>
       <c r="C143" s="1">
-        <v>7.104178868</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.68559211856429358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>58.402000000000001</v>
+        <v>0.17555360391443453</v>
       </c>
       <c r="B144" s="1">
-        <v>9.1999999999999993</v>
+        <v>0.2455438528381006</v>
       </c>
       <c r="C144" s="1">
-        <v>5.5508907760000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.57280396754919249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>66.867000000000004</v>
+        <v>0.44106392321686233</v>
       </c>
       <c r="B145" s="1">
-        <v>10.3154</v>
+        <v>0.31075918504806666</v>
       </c>
       <c r="C145" s="1">
-        <v>4.9533994430000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.52074271029440666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>69.569999999999993</v>
+        <v>0.52584530456056688</v>
       </c>
       <c r="B146" s="1">
-        <v>11.33676945</v>
+        <v>0.3704767285220314</v>
       </c>
       <c r="C146" s="1">
-        <v>4.8440000000000003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51053324331214167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>66.341999999999999</v>
+        <v>0.42459695125776298</v>
       </c>
       <c r="B147" s="1">
-        <v>11.06424</v>
+        <v>0.35454244609532409</v>
       </c>
       <c r="C147" s="1">
-        <v>6.5640000000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.64943998600954567</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>70.477999999999994</v>
+        <v>0.55432532463458994</v>
       </c>
       <c r="B148" s="1">
-        <v>12.1952</v>
+        <v>0.42066754212919816</v>
       </c>
       <c r="C148" s="1">
-        <v>4.8559999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51166431584347294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>60.781999999999996</v>
+        <v>0.25020387679568401</v>
       </c>
       <c r="B149" s="1">
-        <v>11.777202000000001</v>
+        <v>0.39622798821750616</v>
       </c>
       <c r="C149" s="1">
-        <v>5.1254595329999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.53635230739902917</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>58.920999999999999</v>
+        <v>0.1918323819082868</v>
       </c>
       <c r="B150" s="1">
-        <v>12.7494</v>
+        <v>0.45307056984191391</v>
       </c>
       <c r="C150" s="1">
-        <v>6.2916999999999996</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.63007141433597313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>61.195</v>
+        <v>0.26315789473684215</v>
       </c>
       <c r="B151" s="1">
-        <v>10.451079999999999</v>
+        <v>0.31869213849458644</v>
       </c>
       <c r="C151" s="1">
-        <v>8.3422456969999992</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75903157740393878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>67.114000000000004</v>
+        <v>0.44881124145285761</v>
       </c>
       <c r="B152" s="1">
-        <v>8.4649800000000006</v>
+        <v>0.20256862109973847</v>
       </c>
       <c r="C152" s="1">
-        <v>5.158944258</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.53932910888300634</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>72.834999999999994</v>
+        <v>0.62825418731572658</v>
       </c>
       <c r="B153" s="1">
-        <v>10.220414330000001</v>
+        <v>0.30520555224885904</v>
       </c>
       <c r="C153" s="1">
-        <v>5.5407320599999998</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.57196658372072717</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>71.778999999999996</v>
+        <v>0.59513204943228148</v>
       </c>
       <c r="B154" s="1">
-        <v>8.8500999999999994</v>
+        <v>0.22508586042258411</v>
       </c>
       <c r="C154" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.53407590403675387</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>64.263000000000005</v>
+        <v>0.35938774229973047</v>
       </c>
       <c r="B155" s="1">
-        <v>9.9964600000000008</v>
+        <v>0.29211136538243415</v>
       </c>
       <c r="C155" s="1">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48888936286276868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>64.117999999999995</v>
+        <v>0.3548397214729313</v>
       </c>
       <c r="B156" s="1">
-        <v>11.23886102</v>
+        <v>0.36475220746357145</v>
       </c>
       <c r="C156" s="1">
-        <v>4.908531258</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51658302692281932</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>68.7</v>
+        <v>0.4985571795997743</v>
       </c>
       <c r="B157" s="1">
-        <v>11.166589999999999</v>
+        <v>0.36052665736633893</v>
       </c>
       <c r="C157" s="1">
-        <v>4.4171505389999997</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.46836375552924275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>54.332000000000001</v>
+        <v>4.7895364155322785E-2</v>
       </c>
       <c r="B158" s="1">
-        <v>9.7464139999999997</v>
+        <v>0.27749164783018987</v>
       </c>
       <c r="C158" s="1">
-        <v>6.4619</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.64227347753592712</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>65.015000000000001</v>
+        <v>0.38297471927733523</v>
       </c>
       <c r="B159" s="1">
-        <v>8.0098933330000008</v>
+        <v>0.17596056284912778</v>
       </c>
       <c r="C159" s="1">
-        <v>6.008</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.60897918061829948</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>62.972999999999999</v>
+        <v>0.31892603977165801</v>
       </c>
       <c r="B160" s="1">
-        <v>11.242559999999999</v>
+        <v>0.36496847984077962</v>
       </c>
       <c r="C160" s="1">
-        <v>6.0902510000000003</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61519510910989839</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>64.703999999999994</v>
+        <v>0.37321999874537337</v>
       </c>
       <c r="B161" s="1">
-        <v>8.4655699999999996</v>
+        <v>0.20260311728586347</v>
       </c>
       <c r="C161" s="1">
-        <v>4.6139999999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48829528664981059</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>66.680999999999997</v>
+        <v>0.43522991029420988</v>
       </c>
       <c r="B162" s="1">
-        <v>10.413169999999999</v>
+        <v>0.31647561236577182</v>
       </c>
       <c r="C162" s="1">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61592629573247448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>61.47</v>
+        <v>0.27178345147732264</v>
       </c>
       <c r="B163" s="1">
-        <v>12.614549999999999</v>
+        <v>0.44518614492841752</v>
       </c>
       <c r="C163" s="1">
-        <v>3.774</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.39642824571312318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>53.704999999999998</v>
+        <v>2.822909478702712E-2</v>
       </c>
       <c r="B164" s="1">
-        <v>10.73776</v>
+        <v>0.33545377686463579</v>
       </c>
       <c r="C164" s="1">
-        <v>6.3479999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.63414385929130079</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>57.421999999999997</v>
+        <v>0.14481525625744926</v>
       </c>
       <c r="B165" s="1">
-        <v>9.6298399999999997</v>
+        <v>0.27067578613300092</v>
       </c>
       <c r="C165" s="1">
-        <v>5.1920000000000002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.54224888222357415</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>67.665000000000006</v>
+        <v>0.46609372059469317</v>
       </c>
       <c r="B166" s="1">
-        <v>8.9710699999999992</v>
+        <v>0.23215874794046074</v>
       </c>
       <c r="C166" s="1">
-        <v>3.0689340000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.30188900006785857</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>60.76</v>
+        <v>0.24951383225644561</v>
       </c>
       <c r="B167" s="1">
-        <v>12.56833</v>
+        <v>0.44248374878824837</v>
       </c>
       <c r="C167" s="1">
-        <v>4.9499255839999998</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.52042200074320133</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>65.094999999999999</v>
+        <v>0.38548397214729313</v>
       </c>
       <c r="B168" s="1">
-        <v>7.7398699999999998</v>
+        <v>0.16017280835205289</v>
       </c>
       <c r="C168" s="1">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38984002242315569</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>63.66</v>
+        <v>0.340474248792422</v>
       </c>
       <c r="B169" s="1">
-        <v>9.5</v>
+        <v>0.26308428646100707</v>
       </c>
       <c r="C169" s="1">
-        <v>5.4416859999999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56372080398576996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>64.486000000000004</v>
+        <v>0.36638228467473827</v>
       </c>
       <c r="B170" s="1">
-        <v>10.138920000000001</v>
+        <v>0.30044073262883164</v>
       </c>
       <c r="C170" s="1">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.41494429870186278</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>66.581999999999994</v>
+        <v>0.43212470986763674</v>
       </c>
       <c r="B171" s="1">
-        <v>6.484498855</v>
+        <v>8.6773627548771187E-2</v>
       </c>
       <c r="C171" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42301510371879814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>63.798000000000002</v>
+        <v>0.34480270999309964</v>
       </c>
       <c r="B172" s="1">
-        <v>10.95276</v>
+        <v>0.34802442096105207</v>
       </c>
       <c r="C172" s="1">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48987777747818118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>66.239999999999995</v>
+        <v>0.42139765384856648</v>
       </c>
       <c r="B173" s="1">
-        <v>8.7101858839999995</v>
+        <v>0.21690534620723204</v>
       </c>
       <c r="C173" s="1">
-        <v>2.795442993</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2592195505978967</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>61.734999999999999</v>
+        <v>0.28009535160905841</v>
       </c>
       <c r="B174" s="1">
-        <v>9.4820987510000005</v>
+        <v>0.26203763422816834</v>
       </c>
       <c r="C174" s="1">
-        <v>3.6659999999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38315546102201509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>61.185000000000002</v>
+        <v>0.26284423812809743</v>
       </c>
       <c r="B175" s="1">
-        <v>9.0067500000000003</v>
+        <v>0.23424489017934513</v>
       </c>
       <c r="C175" s="1">
-        <v>2.7073925970000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.24458893613074636</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>63.73</v>
+        <v>0.34266984505363524</v>
       </c>
       <c r="B176" s="1">
-        <v>9.5796700000000001</v>
+        <v>0.26774244095013022</v>
       </c>
       <c r="C176" s="1">
-        <v>4.6680000000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4936143825149531</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>66.096000000000004</v>
+        <v>0.41688099868264239</v>
       </c>
       <c r="B177" s="1">
-        <v>8.6643899999999991</v>
+        <v>0.21422774732888428</v>
       </c>
       <c r="C177" s="1">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.32100690776157581</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>58.003</v>
+        <v>0.16303870522551914</v>
       </c>
       <c r="B178" s="1">
-        <v>10.5</v>
+        <v>0.32155239853736173</v>
       </c>
       <c r="C178" s="1">
-        <v>3.303495308</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.33555785338460931</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>60.368000000000002</v>
+        <v>0.23721849319365168</v>
       </c>
       <c r="B179" s="1">
-        <v>9.7025948</v>
+        <v>0.27492962193349368</v>
       </c>
       <c r="C179" s="1">
-        <v>6.7594799999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6628551672233236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>60.162999999999997</v>
+        <v>0.23078853271438421</v>
       </c>
       <c r="B180" s="1">
-        <v>9.7471099999999993</v>
+        <v>0.277532341636195</v>
       </c>
       <c r="C180" s="1">
-        <v>3.5408984380000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.36728320431655992</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>54.308999999999997</v>
+        <v>4.717395395520977E-2</v>
       </c>
       <c r="B181" s="1">
-        <v>10.175929999999999</v>
+        <v>0.3026046374567774</v>
       </c>
       <c r="C181" s="1">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.37485043095958526</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>61.173999999999999</v>
+        <v>0.26249921585847813</v>
       </c>
       <c r="B182" s="1">
-        <v>8.9064599999999992</v>
+        <v>0.22838112321920745</v>
       </c>
       <c r="C182" s="1">
-        <v>1.585573608</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>65.941000000000003</v>
+        <v>0.41201932124709878</v>
       </c>
       <c r="B183" s="1">
-        <v>5.0052836999999997</v>
+        <v>2.8671008118881134E-4</v>
       </c>
       <c r="C183" s="1">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.41144128093584814</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>58.893000000000001</v>
+        <v>0.19095414340380157</v>
       </c>
       <c r="B184" s="1">
-        <v>7.6033600000000003</v>
+        <v>0.15219132637250973</v>
       </c>
       <c r="C184" s="1">
-        <v>2.3529544119999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.18044543728070744</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>61.247</v>
+        <v>0.26478890910231478</v>
       </c>
       <c r="B185" s="1">
-        <v>11.30463</v>
+        <v>0.36859759555735899</v>
       </c>
       <c r="C185" s="1">
-        <v>3.1243650000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.31007219666681801</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>57.603999999999999</v>
+        <v>0.15052380653660372</v>
       </c>
       <c r="B186" s="1">
-        <v>5.0003799999999998</v>
+        <v>0</v>
       </c>
       <c r="C186" s="1">
-        <v>4.8491299999999997</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51101711932169314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>53.976999999999997</v>
+        <v>3.6760554544884173E-2</v>
       </c>
       <c r="B187" s="1">
-        <v>7.4653640000000001</v>
+        <v>0.14412296077842107</v>
       </c>
       <c r="C187" s="1">
-        <v>2.4094970710000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.19130086132149937</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>52.805</v>
+        <v>0</v>
       </c>
       <c r="B188" s="1">
-        <v>7.5683600000000002</v>
+        <v>0.15014494244983731</v>
       </c>
       <c r="C188" s="1">
-        <v>4.282</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4541582529530343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>62.024000000000001</v>
+        <v>0.28916002760178161</v>
       </c>
       <c r="B189" s="1">
-        <v>6.4714499999999999</v>
+        <v>8.6010685632163089E-2</v>
       </c>
       <c r="C189" s="1">
-        <v>2.029048967</v>
+        <v>0.11274069316344919</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCF092-F6AE-2A4E-BE4F-AACF7382E7D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C439E5A-4E7C-AF4F-A02F-FE37DE13E973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
@@ -55,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD203"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,46 +2472,46 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>0.27</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="2">
         <v>0.25</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>0.43</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>0.51</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="2">
         <v>0.39</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>0.64</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>0.7</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="2">
         <v>0.53</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>0.83</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>0.9</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="2">
         <v>0.71</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>0.93</v>
       </c>
     </row>

--- a/src/HDI.xlsx
+++ b/src/HDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C439E5A-4E7C-AF4F-A02F-FE37DE13E973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB812AD0-17E1-BA4E-97E6-B28066D5E809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD208"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,24 +2395,24 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>0.19095414340380157</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="2">
         <v>0.15219132637250973</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>0.18044543728070744</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>0.26478890910231478</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="2">
         <v>0.36859759555735899</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>0.31007219666681801</v>
       </c>
     </row>
